--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F90CA8B-DB66-4BC4-918D-A72860479085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D7F310-95FF-43BA-A0EF-626DC0084D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="828" yWindow="288" windowWidth="21000" windowHeight="10548" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -45,6 +36,10 @@
   </si>
   <si>
     <t>{"sizeX":3,"sizeZ":1,"blocks":[{"id":1005,"posX":0,"posY":0,"posZ":0},{"id":1005,"posX":0,"posY":1,"posZ":0}]}</t>
+  </si>
+  <si>
+    <t>{"sizeX":14,"sizeZ":15,"blocks":[{"id":1007,"posX":-5,"posY":0,"posZ":-4},{"id":1002,"posX":-5,"posY":0,"posZ":-3},{"id":1002,"posX":-5,"posY":0,"posZ":-2},{"id":1002,"posX":-5,"posY":0,"posZ":-1},{"id":1002,"posX":-5,"posY":0,"posZ":0},{"id":1002,"posX":-5,"posY":0,"posZ":1},{"id":1002,"posX":-5,"posY":0,"posZ":2},{"id":1002,"posX":-5,"posY":0,"posZ":3},{"id":1002,"posX":-5,"posY":0,"posZ":4},{"id":1002,"posX":-5,"posY":0,"posZ":5},{"id":1004,"posX":-4,"posY":0,"posZ":-5},{"id":1007,"posX":-4,"posY":0,"posZ":-4},{"id":1002,"posX":-4,"posY":0,"posZ":-3},{"id":1002,"posX":-4,"posY":0,"posZ":-2},{"id":1002,"posX":-4,"posY":0,"posZ":-1},{"id":1002,"posX":-4,"posY":0,"posZ":0},{"id":1002,"posX":-4,"posY":0,"posZ":1},{"id":1002,"posX":-4,"posY":0,"posZ":2},{"id":1002,"posX":-4,"posY":0,"posZ":3},{"id":1002,"posX":-4,"posY":0,"posZ":4},{"id":1002,"posX":-4,"posY":0,"posZ":5},{"id":1004,"posX":-3,"posY":0,"posZ":-5},{"id":1007,"posX":-3,"posY":0,"posZ":-4},{"id":1002,"posX":-3,"posY":0,"posZ":-3},{"id":1002,"posX":-3,"posY":0,"posZ":-2},{"id":1002,"posX":-3,"posY":0,"posZ":-1},{"id":1002,"posX":-3,"posY":0,"posZ":0},{"id":1002,"posX":-3,"posY":0,"posZ":1},{"id":1002,"posX":-3,"posY":0,"posZ":2},{"id":1002,"posX":-3,"posY":0,"posZ":3},{"id":1002,"posX":-3,"posY":0,"posZ":4},{"id":1002,"posX":-3,"posY":0,"posZ":5},{"id":1004,"posX":-2,"posY":0,"posZ":-5},{"id":1007,"posX":-2,"posY":0,"posZ":-4},{"id":1002,"posX":-2,"posY":0,"posZ":-3},{"id":1002,"posX":-2,"posY":0,"posZ":-2},{"id":1002,"posX":-2,"posY":0,"posZ":-1},{"id":1002,"posX":-2,"posY":0,"posZ":0},{"id":1002,"posX":-2,"posY":0,"posZ":1},{"id":1002,"posX":-2,"posY":0,"posZ":2},{"id":1002,"posX":-2,"posY":0,"posZ":3},{"id":1002,"posX":-2,"posY":0,"posZ":4},{"id":1002,"posX":-2,"posY":0,"posZ":5},{"id":1012,"posX":-1,"posY":0,"posZ":-6},{"id":1012,"posX":-1,"posY":0,"posZ":-5},{"id":1007,"posX":-1,"posY":0,"posZ":-4},{"id":1002,"posX":-1,"posY":0,"posZ":-3},{"id":1002,"posX":-1,"posY":0,"posZ":-2},{"id":1002,"posX":-1,"posY":0,"posZ":-1},{"id":1002,"posX":-1,"posY":0,"posZ":0},{"id":1002,"posX":-1,"posY":0,"posZ":1},{"id":1002,"posX":-1,"posY":0,"posZ":2},{"id":1002,"posX":-1,"posY":0,"posZ":3},{"id":1002,"posX":-1,"posY":0,"posZ":4},{"id":1002,"posX":-1,"posY":0,"posZ":5},{"id":1012,"posX":0,"posY":0,"posZ":-6},{"id":1012,"posX":0,"posY":0,"posZ":-5},{"id":1007,"posX":0,"posY":0,"posZ":-4},{"id":1002,"posX":0,"posY":0,"posZ":-3},{"id":1002,"posX":0,"posY":0,"posZ":-2},{"id":1002,"posX":0,"posY":0,"posZ":-1},{"id":1002,"posX":0,"posY":0,"posZ":0},{"id":1002,"posX":0,"posY":0,"posZ":1},{"id":1002,"posX":0,"posY":0,"posZ":2},{"id":1002,"posX":0,"posY":0,"posZ":3},{"id":1002,"posX":0,"posY":0,"posZ":4},{"id":1002,"posX":0,"posY":0,"posZ":5},{"id":1012,"posX":1,"posY":0,"posZ":-6},{"id":1012,"posX":1,"posY":0,"posZ":-5},{"id":1007,"posX":1,"posY":0,"posZ":-4},{"id":1002,"posX":1,"posY":0,"posZ":-3},{"id":1002,"posX":1,"posY":0,"posZ":-2},{"id":1002,"posX":1,"posY":0,"posZ":-1},{"id":1002,"posX":1,"posY":0,"posZ":0},{"id":1002,"posX":1,"posY":0,"posZ":1},{"id":1002,"posX":1,"posY":0,"posZ":2},{"id":1002,"posX":1,"posY":0,"posZ":3},{"id":1002,"posX":1,"posY":0,"posZ":4},{"id":1002,"posX":1,"posY":0,"posZ":5},{"id":1012,"posX":2,"posY":0,"posZ":-6},{"id":1012,"posX":2,"posY":0,"posZ":-5},{"id":1007,"posX":2,"posY":0,"posZ":-4},{"id":1002,"posX":2,"posY":0,"posZ":-3},{"id":1002,"posX":2,"posY":0,"posZ":-2},{"id":1002,"posX":2,"posY":0,"posZ":-1},{"id":1002,"posX":2,"posY":0,"posZ":0},{"id":1002,"posX":2,"posY":0,"posZ":1},{"id":1002,"posX":2,"posY":0,"posZ":2},{"id":1002,"posX":2,"posY":0,"posZ":3},{"id":1002,"posX":2,"posY":0,"posZ":4},{"id":1002,"posX":2,"posY":0,"posZ":5},{"id":1012,"posX":3,"posY":0,"posZ":-6},{"id":1012,"posX":3,"posY":0,"posZ":-5},{"id":1007,"posX":3,"posY":0,"posZ":-4},{"id":1002,"posX":3,"posY":0,"posZ":-3},{"id":1002,"posX":3,"posY":0,"posZ":-2},{"id":1002,"posX":3,"posY":0,"posZ":-1},{"id":1002,"posX":3,"posY":0,"posZ":0},{"id":1002,"posX":3,"posY":0,"posZ":1},{"id":1002,"posX":3,"posY":0,"posZ":2},{"id":1002,"posX":3,"posY":0,"posZ":3},{"id":1002,"posX":3,"posY":0,"posZ":4},{"id":1002,"posX":3,"posY":0,"posZ":5},{"id":1012,"posX":4,"posY":0,"posZ":-6},{"id":1012,"posX":4,"posY":0,"posZ":-5},{"id":1012,"posX":4,"posY":0,"posZ":-4},{"id":1012,"posX":4,"posY":0,"posZ":-3},{"id":1012,"posX":4,"posY":0,"posZ":-2},{"id":1012,"posX":4,"posY":0,"posZ":-1},{"id":1012,"posX":4,"posY":0,"posZ":0},{"id":1012,"posX":4,"posY":0,"posZ":1},{"id":1012,"posX":4,"posY":0,"posZ":2},{"id":1012,"posX":4,"posY":0,"posZ":3},{"id":1012,"posX":4,"posY":0,"posZ":4},{"id":1003,"posX":-5,"posY":1,"posZ":-4},{"id":1002,"posX":-5,"posY":1,"posZ":-3},{"id":1002,"posX":-5,"posY":1,"posZ":-2},{"id":1002,"posX":-5,"posY":1,"posZ":-1},{"id":1002,"posX":-5,"posY":1,"posZ":0},{"id":1002,"posX":-5,"posY":1,"posZ":1},{"id":1002,"posX":-5,"posY":1,"posZ":2},{"id":1002,"posX":-5,"posY":1,"posZ":3},{"id":1002,"posX":-5,"posY":1,"posZ":4},{"id":1003,"posX":-5,"posY":1,"posZ":5},{"id":1012,"posX":-4,"posY":1,"posZ":-4},{"id":1002,"posX":-4,"posY":1,"posZ":5},{"id":1002,"posX":-3,"posY":1,"posZ":5},{"id":1012,"posX":-2,"posY":1,"posZ":-4},{"id":1002,"posX":-2,"posY":1,"posZ":5},{"id":1003,"posX":-1,"posY":1,"posZ":-4},{"id":1002,"posX":-1,"posY":1,"posZ":5},{"id":1002,"posX":0,"posY":1,"posZ":5},{"id":1002,"posX":1,"posY":1,"posZ":5},{"id":1002,"posX":2,"posY":1,"posZ":5},{"id":1003,"posX":3,"posY":1,"posZ":-4},{"id":1002,"posX":3,"posY":1,"posZ":-3},{"id":1002,"posX":3,"posY":1,"posZ":-2},{"id":1002,"posX":3,"posY":1,"posZ":-1},{"id":1002,"posX":3,"posY":1,"posZ":0},{"id":1002,"posX":3,"posY":1,"posZ":1},{"id":1002,"posX":3,"posY":1,"posZ":2},{"id":1002,"posX":3,"posY":1,"posZ":3},{"id":1002,"posX":3,"posY":1,"posZ":4},{"id":1003,"posX":3,"posY":1,"posZ":5},{"id":1003,"posX":-5,"posY":2,"posZ":-4},{"id":1003,"posX":-5,"posY":2,"posZ":5},{"id":1012,"posX":-4,"posY":2,"posZ":-4},{"id":1012,"posX":-2,"posY":2,"posZ":-4},{"id":1003,"posX":-1,"posY":2,"posZ":-4},{"id":1007,"posX":0,"posY":2,"posZ":-4},{"id":1007,"posX":1,"posY":2,"posZ":-4},{"id":1007,"posX":2,"posY":2,"posZ":-4},{"id":1003,"posX":3,"posY":2,"posZ":-4},{"id":1003,"posX":3,"posY":2,"posZ":5},{"id":1003,"posX":-5,"posY":3,"posZ":-4},{"id":1002,"posX":-5,"posY":3,"posZ":-3},{"id":1002,"posX":-5,"posY":3,"posZ":-2},{"id":1002,"posX":-5,"posY":3,"posZ":-1},{"id":1002,"posX":-5,"posY":3,"posZ":0},{"id":1002,"posX":-5,"posY":3,"posZ":1},{"id":1002,"posX":-5,"posY":3,"posZ":2},{"id":1002,"posX":-5,"posY":3,"posZ":3},{"id":1002,"posX":-5,"posY":3,"posZ":4},{"id":1003,"posX":-5,"posY":3,"posZ":5},{"id":1012,"posX":-4,"posY":3,"posZ":-4},{"id":1002,"posX":-4,"posY":3,"posZ":5},{"id":1002,"posX":-3,"posY":3,"posZ":5},{"id":1012,"posX":-2,"posY":3,"posZ":-4},{"id":1002,"posX":-2,"posY":3,"posZ":5},{"id":1003,"posX":-1,"posY":3,"posZ":-4},{"id":1002,"posX":-1,"posY":3,"posZ":5},{"id":1002,"posX":0,"posY":3,"posZ":5},{"id":1002,"posX":1,"posY":3,"posZ":5},{"id":1002,"posX":2,"posY":3,"posZ":5},{"id":1003,"posX":3,"posY":3,"posZ":-4},{"id":1002,"posX":3,"posY":3,"posZ":-3},{"id":1002,"posX":3,"posY":3,"posZ":-2},{"id":1002,"posX":3,"posY":3,"posZ":-1},{"id":1002,"posX":3,"posY":3,"posZ":0},{"id":1002,"posX":3,"posY":3,"posZ":1},{"id":1002,"posX":3,"posY":3,"posZ":2},{"id":1002,"posX":3,"posY":3,"posZ":3},{"id":1002,"posX":3,"posY":3,"posZ":4},{"id":1003,"posX":3,"posY":3,"posZ":5},{"id":1003,"posX":-5,"posY":4,"posZ":-4},{"id":1002,"posX":-5,"posY":4,"posZ":-3},{"id":1002,"posX":-5,"posY":4,"posZ":-2},{"id":1002,"posX":-5,"posY":4,"posZ":-1},{"id":1002,"posX":-5,"posY":4,"posZ":0},{"id":1002,"posX":-5,"posY":4,"posZ":1},{"id":1002,"posX":-5,"posY":4,"posZ":2},{"id":1002,"posX":-5,"posY":4,"posZ":3},{"id":1002,"posX":-5,"posY":4,"posZ":4},{"id":1003,"posX":-5,"posY":4,"posZ":5},{"id":1002,"posX":-4,"posY":4,"posZ":5},{"id":1002,"posX":-3,"posY":4,"posZ":5},{"id":1002,"posX":-2,"posY":4,"posZ":5},{"id":1003,"posX":-1,"posY":4,"posZ":-4},{"id":1002,"posX":-1,"posY":4,"posZ":5},{"id":1002,"posX":0,"posY":4,"posZ":5},{"id":1002,"posX":1,"posY":4,"posZ":5},{"id":1002,"posX":2,"posY":4,"posZ":5},{"id":1003,"posX":3,"posY":4,"posZ":-4},{"id":1002,"posX":3,"posY":4,"posZ":-3},{"id":1002,"posX":3,"posY":4,"posZ":-2},{"id":1002,"posX":3,"posY":4,"posZ":-1},{"id":1002,"posX":3,"posY":4,"posZ":0},{"id":1002,"posX":3,"posY":4,"posZ":1},{"id":1002,"posX":3,"posY":4,"posZ":2},{"id":1002,"posX":3,"posY":4,"posZ":3},{"id":1002,"posX":3,"posY":4,"posZ":4},{"id":1003,"posX":3,"posY":4,"posZ":5},{"id":1004,"posX":-6,"posY":5,"posZ":-5},{"id":1004,"posX":-6,"posY":5,"posZ":-4},{"id":1004,"posX":-6,"posY":5,"posZ":-3},{"id":1004,"posX":-6,"posY":5,"posZ":-2},{"id":1004,"posX":-6,"posY":5,"posZ":-1},{"id":1004,"posX":-6,"posY":5,"posZ":0},{"id":1004,"posX":-6,"posY":5,"posZ":1},{"id":1004,"posX":-6,"posY":5,"posZ":2},{"id":1004,"posX":-6,"posY":5,"posZ":3},{"id":1004,"posX":-6,"posY":5,"posZ":4},{"id":1004,"posX":-6,"posY":5,"posZ":5},{"id":1004,"posX":-6,"posY":5,"posZ":6},{"id":1003,"posX":-5,"posY":5,"posZ":-4},{"id":1003,"posX":-5,"posY":5,"posZ":-3},{"id":1003,"posX":-5,"posY":5,"posZ":-2},{"id":1003,"posX":-5,"posY":5,"posZ":-1},{"id":1003,"posX":-5,"posY":5,"posZ":0},{"id":1003,"posX":-5,"posY":5,"posZ":1},{"id":1003,"posX":-5,"posY":5,"posZ":2},{"id":1003,"posX":-5,"posY":5,"posZ":3},{"id":1003,"posX":-5,"posY":5,"posZ":4},{"id":1003,"posX":-5,"posY":5,"posZ":5},{"id":1003,"posX":-4,"posY":5,"posZ":-4},{"id":1003,"posX":-4,"posY":5,"posZ":5},{"id":1003,"posX":-3,"posY":5,"posZ":-4},{"id":1003,"posX":-3,"posY":5,"posZ":5},{"id":1003,"posX":-2,"posY":5,"posZ":-4},{"id":1003,"posX":-2,"posY":5,"posZ":5},{"id":1003,"posX":-1,"posY":5,"posZ":-4},{"id":1003,"posX":-1,"posY":5,"posZ":5},{"id":1003,"posX":0,"posY":5,"posZ":-4},{"id":1003,"posX":0,"posY":5,"posZ":5},{"id":1003,"posX":1,"posY":5,"posZ":-4},{"id":1003,"posX":1,"posY":5,"posZ":5},{"id":1003,"posX":2,"posY":5,"posZ":-4},{"id":1003,"posX":2,"posY":5,"posZ":5},{"id":1003,"posX":3,"posY":5,"posZ":-4},{"id":1003,"posX":3,"posY":5,"posZ":-3},{"id":1003,"posX":3,"posY":5,"posZ":-2},{"id":1003,"posX":3,"posY":5,"posZ":-1},{"id":1003,"posX":3,"posY":5,"posZ":0},{"id":1003,"posX":3,"posY":5,"posZ":1},{"id":1003,"posX":3,"posY":5,"posZ":2},{"id":1003,"posX":3,"posY":5,"posZ":3},{"id":1003,"posX":3,"posY":5,"posZ":4},{"id":1003,"posX":3,"posY":5,"posZ":5},{"id":1004,"posX":4,"posY":5,"posZ":-5},{"id":1004,"posX":4,"posY":5,"posZ":-4},{"id":1004,"posX":4,"posY":5,"posZ":-3},{"id":1004,"posX":4,"posY":5,"posZ":-2},{"id":1004,"posX":4,"posY":5,"posZ":-1},{"id":1004,"posX":4,"posY":5,"posZ":0},{"id":1004,"posX":4,"posY":5,"posZ":1},{"id":1004,"posX":4,"posY":5,"posZ":2},{"id":1004,"posX":4,"posY":5,"posZ":3},{"id":1004,"posX":4,"posY":5,"posZ":4},{"id":1004,"posX":4,"posY":5,"posZ":5},{"id":1004,"posX":4,"posY":5,"posZ":6},{"id":1004,"posX":-5,"posY":6,"posZ":-5},{"id":1004,"posX":-5,"posY":6,"posZ":-4},{"id":1004,"posX":-5,"posY":6,"posZ":-3},{"id":1004,"posX":-5,"posY":6,"posZ":-2},{"id":1004,"posX":-5,"posY":6,"posZ":-1},{"id":1004,"posX":-5,"posY":6,"posZ":0},{"id":1004,"posX":-5,"posY":6,"posZ":1},{"id":1004,"posX":-5,"posY":6,"posZ":2},{"id":1004,"posX":-5,"posY":6,"posZ":3},{"id":1004,"posX":-5,"posY":6,"posZ":4},{"id":1004,"posX":-5,"posY":6,"posZ":5},{"id":1004,"posX":-5,"posY":6,"posZ":6},{"id":1004,"posX":-4,"posY":6,"posZ":-4},{"id":1012,"posX":-4,"posY":6,"posZ":5},{"id":1003,"posX":-3,"posY":6,"posZ":-4},{"id":1012,"posX":-3,"posY":6,"posZ":5},{"id":1012,"posX":-2,"posY":6,"posZ":-4},{"id":1012,"posX":-2,"posY":6,"posZ":5},{"id":1012,"posX":-1,"posY":6,"posZ":-4},{"id":1012,"posX":-1,"posY":6,"posZ":5},{"id":1012,"posX":0,"posY":6,"posZ":-4},{"id":1012,"posX":0,"posY":6,"posZ":5},{"id":1003,"posX":1,"posY":6,"posZ":-4},{"id":1012,"posX":1,"posY":6,"posZ":5},{"id":1004,"posX":2,"posY":6,"posZ":-4},{"id":1012,"posX":2,"posY":6,"posZ":5},{"id":1004,"posX":3,"posY":6,"posZ":-5},{"id":1004,"posX":3,"posY":6,"posZ":-4},{"id":1004,"posX":3,"posY":6,"posZ":-3},{"id":1004,"posX":3,"posY":6,"posZ":-2},{"id":1004,"posX":3,"posY":6,"posZ":-1},{"id":1004,"posX":3,"posY":6,"posZ":0},{"id":1004,"posX":3,"posY":6,"posZ":1},{"id":1004,"posX":3,"posY":6,"posZ":2},{"id":1004,"posX":3,"posY":6,"posZ":3},{"id":1004,"posX":3,"posY":6,"posZ":4},{"id":1004,"posX":3,"posY":6,"posZ":5},{"id":1004,"posX":3,"posY":6,"posZ":6},{"id":1004,"posX":-4,"posY":7,"posZ":-5},{"id":1004,"posX":-4,"posY":7,"posZ":-4},{"id":1004,"posX":-4,"posY":7,"posZ":-3},{"id":1004,"posX":-4,"posY":7,"posZ":-2},{"id":1004,"posX":-4,"posY":7,"posZ":-1},{"id":1004,"posX":-4,"posY":7,"posZ":0},{"id":1004,"posX":-4,"posY":7,"posZ":1},{"id":1004,"posX":-4,"posY":7,"posZ":2},{"id":1004,"posX":-4,"posY":7,"posZ":3},{"id":1004,"posX":-4,"posY":7,"posZ":4},{"id":1004,"posX":-4,"posY":7,"posZ":5},{"id":1004,"posX":-4,"posY":7,"posZ":6},{"id":1003,"posX":-3,"posY":7,"posZ":-4},{"id":1012,"posX":-3,"posY":7,"posZ":5},{"id":1003,"posX":-2,"posY":7,"posZ":-4},{"id":1012,"posX":-2,"posY":7,"posZ":5},{"id":1003,"posX":-1,"posY":7,"posZ":-4},{"id":1012,"posX":-1,"posY":7,"posZ":5},{"id":1003,"posX":0,"posY":7,"posZ":-4},{"id":1012,"posX":0,"posY":7,"posZ":5},{"id":1003,"posX":1,"posY":7,"posZ":-4},{"id":1012,"posX":1,"posY":7,"posZ":5},{"id":1004,"posX":2,"posY":7,"posZ":-5},{"id":1004,"posX":2,"posY":7,"posZ":-4},{"id":1004,"posX":2,"posY":7,"posZ":-3},{"id":1004,"posX":2,"posY":7,"posZ":-2},{"id":1004,"posX":2,"posY":7,"posZ":-1},{"id":1004,"posX":2,"posY":7,"posZ":0},{"id":1004,"posX":2,"posY":7,"posZ":1},{"id":1004,"posX":2,"posY":7,"posZ":2},{"id":1004,"posX":2,"posY":7,"posZ":3},{"id":1004,"posX":2,"posY":7,"posZ":4},{"id":1004,"posX":2,"posY":7,"posZ":5},{"id":1004,"posX":2,"posY":7,"posZ":6},{"id":1004,"posX":-3,"posY":8,"posZ":-5},{"id":1004,"posX":-3,"posY":8,"posZ":-4},{"id":1004,"posX":-3,"posY":8,"posZ":-3},{"id":1004,"posX":-3,"posY":8,"posZ":-2},{"id":1004,"posX":-3,"posY":8,"posZ":-1},{"id":1004,"posX":-3,"posY":8,"posZ":0},{"id":1004,"posX":-3,"posY":8,"posZ":1},{"id":1004,"posX":-3,"posY":8,"posZ":2},{"id":1004,"posX":-3,"posY":8,"posZ":3},{"id":1004,"posX":-3,"posY":8,"posZ":4},{"id":1004,"posX":-3,"posY":8,"posZ":5},{"id":1004,"posX":-3,"posY":8,"posZ":6},{"id":1004,"posX":-2,"posY":8,"posZ":-4},{"id":1012,"posX":-2,"posY":8,"posZ":5},{"id":1012,"posX":-1,"posY":8,"posZ":5},{"id":1012,"posX":0,"posY":8,"posZ":5},{"id":1004,"posX":1,"posY":8,"posZ":-5},{"id":1004,"posX":1,"posY":8,"posZ":-4},{"id":1004,"posX":1,"posY":8,"posZ":-3},{"id":1004,"posX":1,"posY":8,"posZ":-2},{"id":1004,"posX":1,"posY":8,"posZ":-1},{"id":1004,"posX":1,"posY":8,"posZ":0},{"id":1004,"posX":1,"posY":8,"posZ":1},{"id":1004,"posX":1,"posY":8,"posZ":2},{"id":1004,"posX":1,"posY":8,"posZ":3},{"id":1004,"posX":1,"posY":8,"posZ":4},{"id":1004,"posX":1,"posY":8,"posZ":5},{"id":1004,"posX":1,"posY":8,"posZ":6},{"id":1004,"posX":-2,"posY":9,"posZ":-5},{"id":1004,"posX":-2,"posY":9,"posZ":-4},{"id":1004,"posX":-2,"posY":9,"posZ":-3},{"id":1004,"posX":-2,"posY":9,"posZ":-2},{"id":1004,"posX":-2,"posY":9,"posZ":-1},{"id":1004,"posX":-2,"posY":9,"posZ":0},{"id":1004,"posX":-2,"posY":9,"posZ":1},{"id":1004,"posX":-2,"posY":9,"posZ":2},{"id":1004,"posX":-2,"posY":9,"posZ":3},{"id":1004,"posX":-2,"posY":9,"posZ":4},{"id":1004,"posX":-2,"posY":9,"posZ":5},{"id":1004,"posX":-2,"posY":9,"posZ":6},{"id":1004,"posX":-1,"posY":9,"posZ":-5},{"id":1004,"posX":-1,"posY":9,"posZ":-4},{"id":1004,"posX":-1,"posY":9,"posZ":-3},{"id":1004,"posX":-1,"posY":9,"posZ":-2},{"id":1004,"posX":-1,"posY":9,"posZ":-1},{"id":1004,"posX":-1,"posY":9,"posZ":0},{"id":1004,"posX":-1,"posY":9,"posZ":1},{"id":1004,"posX":-1,"posY":9,"posZ":2},{"id":1004,"posX":-1,"posY":9,"posZ":3},{"id":1004,"posX":-1,"posY":9,"posZ":4},{"id":1004,"posX":-1,"posY":9,"posZ":5},{"id":1004,"posX":-1,"posY":9,"posZ":6},{"id":1004,"posX":0,"posY":9,"posZ":-5},{"id":1004,"posX":0,"posY":9,"posZ":-4},{"id":1004,"posX":0,"posY":9,"posZ":-3},{"id":1004,"posX":0,"posY":9,"posZ":-2},{"id":1004,"posX":0,"posY":9,"posZ":-1},{"id":1004,"posX":0,"posY":9,"posZ":0},{"id":1004,"posX":0,"posY":9,"posZ":1},{"id":1004,"posX":0,"posY":9,"posZ":2},{"id":1004,"posX":0,"posY":9,"posZ":3},{"id":1004,"posX":0,"posY":9,"posZ":4},{"id":1004,"posX":0,"posY":9,"posZ":5},{"id":1004,"posX":0,"posY":9,"posZ":6}]}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -90,8 +85,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -112,8 +110,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
@@ -419,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,12 +433,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D7F310-95FF-43BA-A0EF-626DC0084D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F41C7D-D61E-4953-A619-E3A2934D3A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="288" windowWidth="21000" windowHeight="10548" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>{"sizeX":14,"sizeZ":15,"blocks":[{"id":1007,"posX":-5,"posY":0,"posZ":-4},{"id":1002,"posX":-5,"posY":0,"posZ":-3},{"id":1002,"posX":-5,"posY":0,"posZ":-2},{"id":1002,"posX":-5,"posY":0,"posZ":-1},{"id":1002,"posX":-5,"posY":0,"posZ":0},{"id":1002,"posX":-5,"posY":0,"posZ":1},{"id":1002,"posX":-5,"posY":0,"posZ":2},{"id":1002,"posX":-5,"posY":0,"posZ":3},{"id":1002,"posX":-5,"posY":0,"posZ":4},{"id":1002,"posX":-5,"posY":0,"posZ":5},{"id":1004,"posX":-4,"posY":0,"posZ":-5},{"id":1007,"posX":-4,"posY":0,"posZ":-4},{"id":1002,"posX":-4,"posY":0,"posZ":-3},{"id":1002,"posX":-4,"posY":0,"posZ":-2},{"id":1002,"posX":-4,"posY":0,"posZ":-1},{"id":1002,"posX":-4,"posY":0,"posZ":0},{"id":1002,"posX":-4,"posY":0,"posZ":1},{"id":1002,"posX":-4,"posY":0,"posZ":2},{"id":1002,"posX":-4,"posY":0,"posZ":3},{"id":1002,"posX":-4,"posY":0,"posZ":4},{"id":1002,"posX":-4,"posY":0,"posZ":5},{"id":1004,"posX":-3,"posY":0,"posZ":-5},{"id":1007,"posX":-3,"posY":0,"posZ":-4},{"id":1002,"posX":-3,"posY":0,"posZ":-3},{"id":1002,"posX":-3,"posY":0,"posZ":-2},{"id":1002,"posX":-3,"posY":0,"posZ":-1},{"id":1002,"posX":-3,"posY":0,"posZ":0},{"id":1002,"posX":-3,"posY":0,"posZ":1},{"id":1002,"posX":-3,"posY":0,"posZ":2},{"id":1002,"posX":-3,"posY":0,"posZ":3},{"id":1002,"posX":-3,"posY":0,"posZ":4},{"id":1002,"posX":-3,"posY":0,"posZ":5},{"id":1004,"posX":-2,"posY":0,"posZ":-5},{"id":1007,"posX":-2,"posY":0,"posZ":-4},{"id":1002,"posX":-2,"posY":0,"posZ":-3},{"id":1002,"posX":-2,"posY":0,"posZ":-2},{"id":1002,"posX":-2,"posY":0,"posZ":-1},{"id":1002,"posX":-2,"posY":0,"posZ":0},{"id":1002,"posX":-2,"posY":0,"posZ":1},{"id":1002,"posX":-2,"posY":0,"posZ":2},{"id":1002,"posX":-2,"posY":0,"posZ":3},{"id":1002,"posX":-2,"posY":0,"posZ":4},{"id":1002,"posX":-2,"posY":0,"posZ":5},{"id":1012,"posX":-1,"posY":0,"posZ":-6},{"id":1012,"posX":-1,"posY":0,"posZ":-5},{"id":1007,"posX":-1,"posY":0,"posZ":-4},{"id":1002,"posX":-1,"posY":0,"posZ":-3},{"id":1002,"posX":-1,"posY":0,"posZ":-2},{"id":1002,"posX":-1,"posY":0,"posZ":-1},{"id":1002,"posX":-1,"posY":0,"posZ":0},{"id":1002,"posX":-1,"posY":0,"posZ":1},{"id":1002,"posX":-1,"posY":0,"posZ":2},{"id":1002,"posX":-1,"posY":0,"posZ":3},{"id":1002,"posX":-1,"posY":0,"posZ":4},{"id":1002,"posX":-1,"posY":0,"posZ":5},{"id":1012,"posX":0,"posY":0,"posZ":-6},{"id":1012,"posX":0,"posY":0,"posZ":-5},{"id":1007,"posX":0,"posY":0,"posZ":-4},{"id":1002,"posX":0,"posY":0,"posZ":-3},{"id":1002,"posX":0,"posY":0,"posZ":-2},{"id":1002,"posX":0,"posY":0,"posZ":-1},{"id":1002,"posX":0,"posY":0,"posZ":0},{"id":1002,"posX":0,"posY":0,"posZ":1},{"id":1002,"posX":0,"posY":0,"posZ":2},{"id":1002,"posX":0,"posY":0,"posZ":3},{"id":1002,"posX":0,"posY":0,"posZ":4},{"id":1002,"posX":0,"posY":0,"posZ":5},{"id":1012,"posX":1,"posY":0,"posZ":-6},{"id":1012,"posX":1,"posY":0,"posZ":-5},{"id":1007,"posX":1,"posY":0,"posZ":-4},{"id":1002,"posX":1,"posY":0,"posZ":-3},{"id":1002,"posX":1,"posY":0,"posZ":-2},{"id":1002,"posX":1,"posY":0,"posZ":-1},{"id":1002,"posX":1,"posY":0,"posZ":0},{"id":1002,"posX":1,"posY":0,"posZ":1},{"id":1002,"posX":1,"posY":0,"posZ":2},{"id":1002,"posX":1,"posY":0,"posZ":3},{"id":1002,"posX":1,"posY":0,"posZ":4},{"id":1002,"posX":1,"posY":0,"posZ":5},{"id":1012,"posX":2,"posY":0,"posZ":-6},{"id":1012,"posX":2,"posY":0,"posZ":-5},{"id":1007,"posX":2,"posY":0,"posZ":-4},{"id":1002,"posX":2,"posY":0,"posZ":-3},{"id":1002,"posX":2,"posY":0,"posZ":-2},{"id":1002,"posX":2,"posY":0,"posZ":-1},{"id":1002,"posX":2,"posY":0,"posZ":0},{"id":1002,"posX":2,"posY":0,"posZ":1},{"id":1002,"posX":2,"posY":0,"posZ":2},{"id":1002,"posX":2,"posY":0,"posZ":3},{"id":1002,"posX":2,"posY":0,"posZ":4},{"id":1002,"posX":2,"posY":0,"posZ":5},{"id":1012,"posX":3,"posY":0,"posZ":-6},{"id":1012,"posX":3,"posY":0,"posZ":-5},{"id":1007,"posX":3,"posY":0,"posZ":-4},{"id":1002,"posX":3,"posY":0,"posZ":-3},{"id":1002,"posX":3,"posY":0,"posZ":-2},{"id":1002,"posX":3,"posY":0,"posZ":-1},{"id":1002,"posX":3,"posY":0,"posZ":0},{"id":1002,"posX":3,"posY":0,"posZ":1},{"id":1002,"posX":3,"posY":0,"posZ":2},{"id":1002,"posX":3,"posY":0,"posZ":3},{"id":1002,"posX":3,"posY":0,"posZ":4},{"id":1002,"posX":3,"posY":0,"posZ":5},{"id":1012,"posX":4,"posY":0,"posZ":-6},{"id":1012,"posX":4,"posY":0,"posZ":-5},{"id":1012,"posX":4,"posY":0,"posZ":-4},{"id":1012,"posX":4,"posY":0,"posZ":-3},{"id":1012,"posX":4,"posY":0,"posZ":-2},{"id":1012,"posX":4,"posY":0,"posZ":-1},{"id":1012,"posX":4,"posY":0,"posZ":0},{"id":1012,"posX":4,"posY":0,"posZ":1},{"id":1012,"posX":4,"posY":0,"posZ":2},{"id":1012,"posX":4,"posY":0,"posZ":3},{"id":1012,"posX":4,"posY":0,"posZ":4},{"id":1003,"posX":-5,"posY":1,"posZ":-4},{"id":1002,"posX":-5,"posY":1,"posZ":-3},{"id":1002,"posX":-5,"posY":1,"posZ":-2},{"id":1002,"posX":-5,"posY":1,"posZ":-1},{"id":1002,"posX":-5,"posY":1,"posZ":0},{"id":1002,"posX":-5,"posY":1,"posZ":1},{"id":1002,"posX":-5,"posY":1,"posZ":2},{"id":1002,"posX":-5,"posY":1,"posZ":3},{"id":1002,"posX":-5,"posY":1,"posZ":4},{"id":1003,"posX":-5,"posY":1,"posZ":5},{"id":1012,"posX":-4,"posY":1,"posZ":-4},{"id":1002,"posX":-4,"posY":1,"posZ":5},{"id":1002,"posX":-3,"posY":1,"posZ":5},{"id":1012,"posX":-2,"posY":1,"posZ":-4},{"id":1002,"posX":-2,"posY":1,"posZ":5},{"id":1003,"posX":-1,"posY":1,"posZ":-4},{"id":1002,"posX":-1,"posY":1,"posZ":5},{"id":1002,"posX":0,"posY":1,"posZ":5},{"id":1002,"posX":1,"posY":1,"posZ":5},{"id":1002,"posX":2,"posY":1,"posZ":5},{"id":1003,"posX":3,"posY":1,"posZ":-4},{"id":1002,"posX":3,"posY":1,"posZ":-3},{"id":1002,"posX":3,"posY":1,"posZ":-2},{"id":1002,"posX":3,"posY":1,"posZ":-1},{"id":1002,"posX":3,"posY":1,"posZ":0},{"id":1002,"posX":3,"posY":1,"posZ":1},{"id":1002,"posX":3,"posY":1,"posZ":2},{"id":1002,"posX":3,"posY":1,"posZ":3},{"id":1002,"posX":3,"posY":1,"posZ":4},{"id":1003,"posX":3,"posY":1,"posZ":5},{"id":1003,"posX":-5,"posY":2,"posZ":-4},{"id":1003,"posX":-5,"posY":2,"posZ":5},{"id":1012,"posX":-4,"posY":2,"posZ":-4},{"id":1012,"posX":-2,"posY":2,"posZ":-4},{"id":1003,"posX":-1,"posY":2,"posZ":-4},{"id":1007,"posX":0,"posY":2,"posZ":-4},{"id":1007,"posX":1,"posY":2,"posZ":-4},{"id":1007,"posX":2,"posY":2,"posZ":-4},{"id":1003,"posX":3,"posY":2,"posZ":-4},{"id":1003,"posX":3,"posY":2,"posZ":5},{"id":1003,"posX":-5,"posY":3,"posZ":-4},{"id":1002,"posX":-5,"posY":3,"posZ":-3},{"id":1002,"posX":-5,"posY":3,"posZ":-2},{"id":1002,"posX":-5,"posY":3,"posZ":-1},{"id":1002,"posX":-5,"posY":3,"posZ":0},{"id":1002,"posX":-5,"posY":3,"posZ":1},{"id":1002,"posX":-5,"posY":3,"posZ":2},{"id":1002,"posX":-5,"posY":3,"posZ":3},{"id":1002,"posX":-5,"posY":3,"posZ":4},{"id":1003,"posX":-5,"posY":3,"posZ":5},{"id":1012,"posX":-4,"posY":3,"posZ":-4},{"id":1002,"posX":-4,"posY":3,"posZ":5},{"id":1002,"posX":-3,"posY":3,"posZ":5},{"id":1012,"posX":-2,"posY":3,"posZ":-4},{"id":1002,"posX":-2,"posY":3,"posZ":5},{"id":1003,"posX":-1,"posY":3,"posZ":-4},{"id":1002,"posX":-1,"posY":3,"posZ":5},{"id":1002,"posX":0,"posY":3,"posZ":5},{"id":1002,"posX":1,"posY":3,"posZ":5},{"id":1002,"posX":2,"posY":3,"posZ":5},{"id":1003,"posX":3,"posY":3,"posZ":-4},{"id":1002,"posX":3,"posY":3,"posZ":-3},{"id":1002,"posX":3,"posY":3,"posZ":-2},{"id":1002,"posX":3,"posY":3,"posZ":-1},{"id":1002,"posX":3,"posY":3,"posZ":0},{"id":1002,"posX":3,"posY":3,"posZ":1},{"id":1002,"posX":3,"posY":3,"posZ":2},{"id":1002,"posX":3,"posY":3,"posZ":3},{"id":1002,"posX":3,"posY":3,"posZ":4},{"id":1003,"posX":3,"posY":3,"posZ":5},{"id":1003,"posX":-5,"posY":4,"posZ":-4},{"id":1002,"posX":-5,"posY":4,"posZ":-3},{"id":1002,"posX":-5,"posY":4,"posZ":-2},{"id":1002,"posX":-5,"posY":4,"posZ":-1},{"id":1002,"posX":-5,"posY":4,"posZ":0},{"id":1002,"posX":-5,"posY":4,"posZ":1},{"id":1002,"posX":-5,"posY":4,"posZ":2},{"id":1002,"posX":-5,"posY":4,"posZ":3},{"id":1002,"posX":-5,"posY":4,"posZ":4},{"id":1003,"posX":-5,"posY":4,"posZ":5},{"id":1002,"posX":-4,"posY":4,"posZ":5},{"id":1002,"posX":-3,"posY":4,"posZ":5},{"id":1002,"posX":-2,"posY":4,"posZ":5},{"id":1003,"posX":-1,"posY":4,"posZ":-4},{"id":1002,"posX":-1,"posY":4,"posZ":5},{"id":1002,"posX":0,"posY":4,"posZ":5},{"id":1002,"posX":1,"posY":4,"posZ":5},{"id":1002,"posX":2,"posY":4,"posZ":5},{"id":1003,"posX":3,"posY":4,"posZ":-4},{"id":1002,"posX":3,"posY":4,"posZ":-3},{"id":1002,"posX":3,"posY":4,"posZ":-2},{"id":1002,"posX":3,"posY":4,"posZ":-1},{"id":1002,"posX":3,"posY":4,"posZ":0},{"id":1002,"posX":3,"posY":4,"posZ":1},{"id":1002,"posX":3,"posY":4,"posZ":2},{"id":1002,"posX":3,"posY":4,"posZ":3},{"id":1002,"posX":3,"posY":4,"posZ":4},{"id":1003,"posX":3,"posY":4,"posZ":5},{"id":1004,"posX":-6,"posY":5,"posZ":-5},{"id":1004,"posX":-6,"posY":5,"posZ":-4},{"id":1004,"posX":-6,"posY":5,"posZ":-3},{"id":1004,"posX":-6,"posY":5,"posZ":-2},{"id":1004,"posX":-6,"posY":5,"posZ":-1},{"id":1004,"posX":-6,"posY":5,"posZ":0},{"id":1004,"posX":-6,"posY":5,"posZ":1},{"id":1004,"posX":-6,"posY":5,"posZ":2},{"id":1004,"posX":-6,"posY":5,"posZ":3},{"id":1004,"posX":-6,"posY":5,"posZ":4},{"id":1004,"posX":-6,"posY":5,"posZ":5},{"id":1004,"posX":-6,"posY":5,"posZ":6},{"id":1003,"posX":-5,"posY":5,"posZ":-4},{"id":1003,"posX":-5,"posY":5,"posZ":-3},{"id":1003,"posX":-5,"posY":5,"posZ":-2},{"id":1003,"posX":-5,"posY":5,"posZ":-1},{"id":1003,"posX":-5,"posY":5,"posZ":0},{"id":1003,"posX":-5,"posY":5,"posZ":1},{"id":1003,"posX":-5,"posY":5,"posZ":2},{"id":1003,"posX":-5,"posY":5,"posZ":3},{"id":1003,"posX":-5,"posY":5,"posZ":4},{"id":1003,"posX":-5,"posY":5,"posZ":5},{"id":1003,"posX":-4,"posY":5,"posZ":-4},{"id":1003,"posX":-4,"posY":5,"posZ":5},{"id":1003,"posX":-3,"posY":5,"posZ":-4},{"id":1003,"posX":-3,"posY":5,"posZ":5},{"id":1003,"posX":-2,"posY":5,"posZ":-4},{"id":1003,"posX":-2,"posY":5,"posZ":5},{"id":1003,"posX":-1,"posY":5,"posZ":-4},{"id":1003,"posX":-1,"posY":5,"posZ":5},{"id":1003,"posX":0,"posY":5,"posZ":-4},{"id":1003,"posX":0,"posY":5,"posZ":5},{"id":1003,"posX":1,"posY":5,"posZ":-4},{"id":1003,"posX":1,"posY":5,"posZ":5},{"id":1003,"posX":2,"posY":5,"posZ":-4},{"id":1003,"posX":2,"posY":5,"posZ":5},{"id":1003,"posX":3,"posY":5,"posZ":-4},{"id":1003,"posX":3,"posY":5,"posZ":-3},{"id":1003,"posX":3,"posY":5,"posZ":-2},{"id":1003,"posX":3,"posY":5,"posZ":-1},{"id":1003,"posX":3,"posY":5,"posZ":0},{"id":1003,"posX":3,"posY":5,"posZ":1},{"id":1003,"posX":3,"posY":5,"posZ":2},{"id":1003,"posX":3,"posY":5,"posZ":3},{"id":1003,"posX":3,"posY":5,"posZ":4},{"id":1003,"posX":3,"posY":5,"posZ":5},{"id":1004,"posX":4,"posY":5,"posZ":-5},{"id":1004,"posX":4,"posY":5,"posZ":-4},{"id":1004,"posX":4,"posY":5,"posZ":-3},{"id":1004,"posX":4,"posY":5,"posZ":-2},{"id":1004,"posX":4,"posY":5,"posZ":-1},{"id":1004,"posX":4,"posY":5,"posZ":0},{"id":1004,"posX":4,"posY":5,"posZ":1},{"id":1004,"posX":4,"posY":5,"posZ":2},{"id":1004,"posX":4,"posY":5,"posZ":3},{"id":1004,"posX":4,"posY":5,"posZ":4},{"id":1004,"posX":4,"posY":5,"posZ":5},{"id":1004,"posX":4,"posY":5,"posZ":6},{"id":1004,"posX":-5,"posY":6,"posZ":-5},{"id":1004,"posX":-5,"posY":6,"posZ":-4},{"id":1004,"posX":-5,"posY":6,"posZ":-3},{"id":1004,"posX":-5,"posY":6,"posZ":-2},{"id":1004,"posX":-5,"posY":6,"posZ":-1},{"id":1004,"posX":-5,"posY":6,"posZ":0},{"id":1004,"posX":-5,"posY":6,"posZ":1},{"id":1004,"posX":-5,"posY":6,"posZ":2},{"id":1004,"posX":-5,"posY":6,"posZ":3},{"id":1004,"posX":-5,"posY":6,"posZ":4},{"id":1004,"posX":-5,"posY":6,"posZ":5},{"id":1004,"posX":-5,"posY":6,"posZ":6},{"id":1004,"posX":-4,"posY":6,"posZ":-4},{"id":1012,"posX":-4,"posY":6,"posZ":5},{"id":1003,"posX":-3,"posY":6,"posZ":-4},{"id":1012,"posX":-3,"posY":6,"posZ":5},{"id":1012,"posX":-2,"posY":6,"posZ":-4},{"id":1012,"posX":-2,"posY":6,"posZ":5},{"id":1012,"posX":-1,"posY":6,"posZ":-4},{"id":1012,"posX":-1,"posY":6,"posZ":5},{"id":1012,"posX":0,"posY":6,"posZ":-4},{"id":1012,"posX":0,"posY":6,"posZ":5},{"id":1003,"posX":1,"posY":6,"posZ":-4},{"id":1012,"posX":1,"posY":6,"posZ":5},{"id":1004,"posX":2,"posY":6,"posZ":-4},{"id":1012,"posX":2,"posY":6,"posZ":5},{"id":1004,"posX":3,"posY":6,"posZ":-5},{"id":1004,"posX":3,"posY":6,"posZ":-4},{"id":1004,"posX":3,"posY":6,"posZ":-3},{"id":1004,"posX":3,"posY":6,"posZ":-2},{"id":1004,"posX":3,"posY":6,"posZ":-1},{"id":1004,"posX":3,"posY":6,"posZ":0},{"id":1004,"posX":3,"posY":6,"posZ":1},{"id":1004,"posX":3,"posY":6,"posZ":2},{"id":1004,"posX":3,"posY":6,"posZ":3},{"id":1004,"posX":3,"posY":6,"posZ":4},{"id":1004,"posX":3,"posY":6,"posZ":5},{"id":1004,"posX":3,"posY":6,"posZ":6},{"id":1004,"posX":-4,"posY":7,"posZ":-5},{"id":1004,"posX":-4,"posY":7,"posZ":-4},{"id":1004,"posX":-4,"posY":7,"posZ":-3},{"id":1004,"posX":-4,"posY":7,"posZ":-2},{"id":1004,"posX":-4,"posY":7,"posZ":-1},{"id":1004,"posX":-4,"posY":7,"posZ":0},{"id":1004,"posX":-4,"posY":7,"posZ":1},{"id":1004,"posX":-4,"posY":7,"posZ":2},{"id":1004,"posX":-4,"posY":7,"posZ":3},{"id":1004,"posX":-4,"posY":7,"posZ":4},{"id":1004,"posX":-4,"posY":7,"posZ":5},{"id":1004,"posX":-4,"posY":7,"posZ":6},{"id":1003,"posX":-3,"posY":7,"posZ":-4},{"id":1012,"posX":-3,"posY":7,"posZ":5},{"id":1003,"posX":-2,"posY":7,"posZ":-4},{"id":1012,"posX":-2,"posY":7,"posZ":5},{"id":1003,"posX":-1,"posY":7,"posZ":-4},{"id":1012,"posX":-1,"posY":7,"posZ":5},{"id":1003,"posX":0,"posY":7,"posZ":-4},{"id":1012,"posX":0,"posY":7,"posZ":5},{"id":1003,"posX":1,"posY":7,"posZ":-4},{"id":1012,"posX":1,"posY":7,"posZ":5},{"id":1004,"posX":2,"posY":7,"posZ":-5},{"id":1004,"posX":2,"posY":7,"posZ":-4},{"id":1004,"posX":2,"posY":7,"posZ":-3},{"id":1004,"posX":2,"posY":7,"posZ":-2},{"id":1004,"posX":2,"posY":7,"posZ":-1},{"id":1004,"posX":2,"posY":7,"posZ":0},{"id":1004,"posX":2,"posY":7,"posZ":1},{"id":1004,"posX":2,"posY":7,"posZ":2},{"id":1004,"posX":2,"posY":7,"posZ":3},{"id":1004,"posX":2,"posY":7,"posZ":4},{"id":1004,"posX":2,"posY":7,"posZ":5},{"id":1004,"posX":2,"posY":7,"posZ":6},{"id":1004,"posX":-3,"posY":8,"posZ":-5},{"id":1004,"posX":-3,"posY":8,"posZ":-4},{"id":1004,"posX":-3,"posY":8,"posZ":-3},{"id":1004,"posX":-3,"posY":8,"posZ":-2},{"id":1004,"posX":-3,"posY":8,"posZ":-1},{"id":1004,"posX":-3,"posY":8,"posZ":0},{"id":1004,"posX":-3,"posY":8,"posZ":1},{"id":1004,"posX":-3,"posY":8,"posZ":2},{"id":1004,"posX":-3,"posY":8,"posZ":3},{"id":1004,"posX":-3,"posY":8,"posZ":4},{"id":1004,"posX":-3,"posY":8,"posZ":5},{"id":1004,"posX":-3,"posY":8,"posZ":6},{"id":1004,"posX":-2,"posY":8,"posZ":-4},{"id":1012,"posX":-2,"posY":8,"posZ":5},{"id":1012,"posX":-1,"posY":8,"posZ":5},{"id":1012,"posX":0,"posY":8,"posZ":5},{"id":1004,"posX":1,"posY":8,"posZ":-5},{"id":1004,"posX":1,"posY":8,"posZ":-4},{"id":1004,"posX":1,"posY":8,"posZ":-3},{"id":1004,"posX":1,"posY":8,"posZ":-2},{"id":1004,"posX":1,"posY":8,"posZ":-1},{"id":1004,"posX":1,"posY":8,"posZ":0},{"id":1004,"posX":1,"posY":8,"posZ":1},{"id":1004,"posX":1,"posY":8,"posZ":2},{"id":1004,"posX":1,"posY":8,"posZ":3},{"id":1004,"posX":1,"posY":8,"posZ":4},{"id":1004,"posX":1,"posY":8,"posZ":5},{"id":1004,"posX":1,"posY":8,"posZ":6},{"id":1004,"posX":-2,"posY":9,"posZ":-5},{"id":1004,"posX":-2,"posY":9,"posZ":-4},{"id":1004,"posX":-2,"posY":9,"posZ":-3},{"id":1004,"posX":-2,"posY":9,"posZ":-2},{"id":1004,"posX":-2,"posY":9,"posZ":-1},{"id":1004,"posX":-2,"posY":9,"posZ":0},{"id":1004,"posX":-2,"posY":9,"posZ":1},{"id":1004,"posX":-2,"posY":9,"posZ":2},{"id":1004,"posX":-2,"posY":9,"posZ":3},{"id":1004,"posX":-2,"posY":9,"posZ":4},{"id":1004,"posX":-2,"posY":9,"posZ":5},{"id":1004,"posX":-2,"posY":9,"posZ":6},{"id":1004,"posX":-1,"posY":9,"posZ":-5},{"id":1004,"posX":-1,"posY":9,"posZ":-4},{"id":1004,"posX":-1,"posY":9,"posZ":-3},{"id":1004,"posX":-1,"posY":9,"posZ":-2},{"id":1004,"posX":-1,"posY":9,"posZ":-1},{"id":1004,"posX":-1,"posY":9,"posZ":0},{"id":1004,"posX":-1,"posY":9,"posZ":1},{"id":1004,"posX":-1,"posY":9,"posZ":2},{"id":1004,"posX":-1,"posY":9,"posZ":3},{"id":1004,"posX":-1,"posY":9,"posZ":4},{"id":1004,"posX":-1,"posY":9,"posZ":5},{"id":1004,"posX":-1,"posY":9,"posZ":6},{"id":1004,"posX":0,"posY":9,"posZ":-5},{"id":1004,"posX":0,"posY":9,"posZ":-4},{"id":1004,"posX":0,"posY":9,"posZ":-3},{"id":1004,"posX":0,"posY":9,"posZ":-2},{"id":1004,"posX":0,"posY":9,"posZ":-1},{"id":1004,"posX":0,"posY":9,"posZ":0},{"id":1004,"posX":0,"posY":9,"posZ":1},{"id":1004,"posX":0,"posY":9,"posZ":2},{"id":1004,"posX":0,"posY":9,"posZ":3},{"id":1004,"posX":0,"posY":9,"posZ":4},{"id":1004,"posX":0,"posY":9,"posZ":5},{"id":1004,"posX":0,"posY":9,"posZ":6}]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -110,10 +114,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
+    <tableColumn id="3" xr3:uid="{3540EEFE-10FA-4C25-80EF-C20F524C3535}" name="Name"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -417,35 +422,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F41C7D-D61E-4953-A619-E3A2934D3A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267E2685-E600-4DAB-B474-ADBC4599A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="1590" yWindow="4125" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -42,7 +43,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この設定ファイルは固定の設計図です。</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図の内容</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -114,11 +144,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
-    <tableColumn id="3" xr3:uid="{3540EEFE-10FA-4C25-80EF-C20F524C3535}" name="Name"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -422,38 +451,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -465,4 +491,46 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E370A5-172A-4DC3-BDE9-6B607C61DD98}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267E2685-E600-4DAB-B474-ADBC4599A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE2197-C7C7-4697-AE22-BAB215983BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="4125" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -41,9 +41,6 @@
   <si>
     <t>{"sizeX":14,"sizeZ":15,"blocks":[{"id":1007,"posX":-5,"posY":0,"posZ":-4},{"id":1002,"posX":-5,"posY":0,"posZ":-3},{"id":1002,"posX":-5,"posY":0,"posZ":-2},{"id":1002,"posX":-5,"posY":0,"posZ":-1},{"id":1002,"posX":-5,"posY":0,"posZ":0},{"id":1002,"posX":-5,"posY":0,"posZ":1},{"id":1002,"posX":-5,"posY":0,"posZ":2},{"id":1002,"posX":-5,"posY":0,"posZ":3},{"id":1002,"posX":-5,"posY":0,"posZ":4},{"id":1002,"posX":-5,"posY":0,"posZ":5},{"id":1004,"posX":-4,"posY":0,"posZ":-5},{"id":1007,"posX":-4,"posY":0,"posZ":-4},{"id":1002,"posX":-4,"posY":0,"posZ":-3},{"id":1002,"posX":-4,"posY":0,"posZ":-2},{"id":1002,"posX":-4,"posY":0,"posZ":-1},{"id":1002,"posX":-4,"posY":0,"posZ":0},{"id":1002,"posX":-4,"posY":0,"posZ":1},{"id":1002,"posX":-4,"posY":0,"posZ":2},{"id":1002,"posX":-4,"posY":0,"posZ":3},{"id":1002,"posX":-4,"posY":0,"posZ":4},{"id":1002,"posX":-4,"posY":0,"posZ":5},{"id":1004,"posX":-3,"posY":0,"posZ":-5},{"id":1007,"posX":-3,"posY":0,"posZ":-4},{"id":1002,"posX":-3,"posY":0,"posZ":-3},{"id":1002,"posX":-3,"posY":0,"posZ":-2},{"id":1002,"posX":-3,"posY":0,"posZ":-1},{"id":1002,"posX":-3,"posY":0,"posZ":0},{"id":1002,"posX":-3,"posY":0,"posZ":1},{"id":1002,"posX":-3,"posY":0,"posZ":2},{"id":1002,"posX":-3,"posY":0,"posZ":3},{"id":1002,"posX":-3,"posY":0,"posZ":4},{"id":1002,"posX":-3,"posY":0,"posZ":5},{"id":1004,"posX":-2,"posY":0,"posZ":-5},{"id":1007,"posX":-2,"posY":0,"posZ":-4},{"id":1002,"posX":-2,"posY":0,"posZ":-3},{"id":1002,"posX":-2,"posY":0,"posZ":-2},{"id":1002,"posX":-2,"posY":0,"posZ":-1},{"id":1002,"posX":-2,"posY":0,"posZ":0},{"id":1002,"posX":-2,"posY":0,"posZ":1},{"id":1002,"posX":-2,"posY":0,"posZ":2},{"id":1002,"posX":-2,"posY":0,"posZ":3},{"id":1002,"posX":-2,"posY":0,"posZ":4},{"id":1002,"posX":-2,"posY":0,"posZ":5},{"id":1012,"posX":-1,"posY":0,"posZ":-6},{"id":1012,"posX":-1,"posY":0,"posZ":-5},{"id":1007,"posX":-1,"posY":0,"posZ":-4},{"id":1002,"posX":-1,"posY":0,"posZ":-3},{"id":1002,"posX":-1,"posY":0,"posZ":-2},{"id":1002,"posX":-1,"posY":0,"posZ":-1},{"id":1002,"posX":-1,"posY":0,"posZ":0},{"id":1002,"posX":-1,"posY":0,"posZ":1},{"id":1002,"posX":-1,"posY":0,"posZ":2},{"id":1002,"posX":-1,"posY":0,"posZ":3},{"id":1002,"posX":-1,"posY":0,"posZ":4},{"id":1002,"posX":-1,"posY":0,"posZ":5},{"id":1012,"posX":0,"posY":0,"posZ":-6},{"id":1012,"posX":0,"posY":0,"posZ":-5},{"id":1007,"posX":0,"posY":0,"posZ":-4},{"id":1002,"posX":0,"posY":0,"posZ":-3},{"id":1002,"posX":0,"posY":0,"posZ":-2},{"id":1002,"posX":0,"posY":0,"posZ":-1},{"id":1002,"posX":0,"posY":0,"posZ":0},{"id":1002,"posX":0,"posY":0,"posZ":1},{"id":1002,"posX":0,"posY":0,"posZ":2},{"id":1002,"posX":0,"posY":0,"posZ":3},{"id":1002,"posX":0,"posY":0,"posZ":4},{"id":1002,"posX":0,"posY":0,"posZ":5},{"id":1012,"posX":1,"posY":0,"posZ":-6},{"id":1012,"posX":1,"posY":0,"posZ":-5},{"id":1007,"posX":1,"posY":0,"posZ":-4},{"id":1002,"posX":1,"posY":0,"posZ":-3},{"id":1002,"posX":1,"posY":0,"posZ":-2},{"id":1002,"posX":1,"posY":0,"posZ":-1},{"id":1002,"posX":1,"posY":0,"posZ":0},{"id":1002,"posX":1,"posY":0,"posZ":1},{"id":1002,"posX":1,"posY":0,"posZ":2},{"id":1002,"posX":1,"posY":0,"posZ":3},{"id":1002,"posX":1,"posY":0,"posZ":4},{"id":1002,"posX":1,"posY":0,"posZ":5},{"id":1012,"posX":2,"posY":0,"posZ":-6},{"id":1012,"posX":2,"posY":0,"posZ":-5},{"id":1007,"posX":2,"posY":0,"posZ":-4},{"id":1002,"posX":2,"posY":0,"posZ":-3},{"id":1002,"posX":2,"posY":0,"posZ":-2},{"id":1002,"posX":2,"posY":0,"posZ":-1},{"id":1002,"posX":2,"posY":0,"posZ":0},{"id":1002,"posX":2,"posY":0,"posZ":1},{"id":1002,"posX":2,"posY":0,"posZ":2},{"id":1002,"posX":2,"posY":0,"posZ":3},{"id":1002,"posX":2,"posY":0,"posZ":4},{"id":1002,"posX":2,"posY":0,"posZ":5},{"id":1012,"posX":3,"posY":0,"posZ":-6},{"id":1012,"posX":3,"posY":0,"posZ":-5},{"id":1007,"posX":3,"posY":0,"posZ":-4},{"id":1002,"posX":3,"posY":0,"posZ":-3},{"id":1002,"posX":3,"posY":0,"posZ":-2},{"id":1002,"posX":3,"posY":0,"posZ":-1},{"id":1002,"posX":3,"posY":0,"posZ":0},{"id":1002,"posX":3,"posY":0,"posZ":1},{"id":1002,"posX":3,"posY":0,"posZ":2},{"id":1002,"posX":3,"posY":0,"posZ":3},{"id":1002,"posX":3,"posY":0,"posZ":4},{"id":1002,"posX":3,"posY":0,"posZ":5},{"id":1012,"posX":4,"posY":0,"posZ":-6},{"id":1012,"posX":4,"posY":0,"posZ":-5},{"id":1012,"posX":4,"posY":0,"posZ":-4},{"id":1012,"posX":4,"posY":0,"posZ":-3},{"id":1012,"posX":4,"posY":0,"posZ":-2},{"id":1012,"posX":4,"posY":0,"posZ":-1},{"id":1012,"posX":4,"posY":0,"posZ":0},{"id":1012,"posX":4,"posY":0,"posZ":1},{"id":1012,"posX":4,"posY":0,"posZ":2},{"id":1012,"posX":4,"posY":0,"posZ":3},{"id":1012,"posX":4,"posY":0,"posZ":4},{"id":1003,"posX":-5,"posY":1,"posZ":-4},{"id":1002,"posX":-5,"posY":1,"posZ":-3},{"id":1002,"posX":-5,"posY":1,"posZ":-2},{"id":1002,"posX":-5,"posY":1,"posZ":-1},{"id":1002,"posX":-5,"posY":1,"posZ":0},{"id":1002,"posX":-5,"posY":1,"posZ":1},{"id":1002,"posX":-5,"posY":1,"posZ":2},{"id":1002,"posX":-5,"posY":1,"posZ":3},{"id":1002,"posX":-5,"posY":1,"posZ":4},{"id":1003,"posX":-5,"posY":1,"posZ":5},{"id":1012,"posX":-4,"posY":1,"posZ":-4},{"id":1002,"posX":-4,"posY":1,"posZ":5},{"id":1002,"posX":-3,"posY":1,"posZ":5},{"id":1012,"posX":-2,"posY":1,"posZ":-4},{"id":1002,"posX":-2,"posY":1,"posZ":5},{"id":1003,"posX":-1,"posY":1,"posZ":-4},{"id":1002,"posX":-1,"posY":1,"posZ":5},{"id":1002,"posX":0,"posY":1,"posZ":5},{"id":1002,"posX":1,"posY":1,"posZ":5},{"id":1002,"posX":2,"posY":1,"posZ":5},{"id":1003,"posX":3,"posY":1,"posZ":-4},{"id":1002,"posX":3,"posY":1,"posZ":-3},{"id":1002,"posX":3,"posY":1,"posZ":-2},{"id":1002,"posX":3,"posY":1,"posZ":-1},{"id":1002,"posX":3,"posY":1,"posZ":0},{"id":1002,"posX":3,"posY":1,"posZ":1},{"id":1002,"posX":3,"posY":1,"posZ":2},{"id":1002,"posX":3,"posY":1,"posZ":3},{"id":1002,"posX":3,"posY":1,"posZ":4},{"id":1003,"posX":3,"posY":1,"posZ":5},{"id":1003,"posX":-5,"posY":2,"posZ":-4},{"id":1003,"posX":-5,"posY":2,"posZ":5},{"id":1012,"posX":-4,"posY":2,"posZ":-4},{"id":1012,"posX":-2,"posY":2,"posZ":-4},{"id":1003,"posX":-1,"posY":2,"posZ":-4},{"id":1007,"posX":0,"posY":2,"posZ":-4},{"id":1007,"posX":1,"posY":2,"posZ":-4},{"id":1007,"posX":2,"posY":2,"posZ":-4},{"id":1003,"posX":3,"posY":2,"posZ":-4},{"id":1003,"posX":3,"posY":2,"posZ":5},{"id":1003,"posX":-5,"posY":3,"posZ":-4},{"id":1002,"posX":-5,"posY":3,"posZ":-3},{"id":1002,"posX":-5,"posY":3,"posZ":-2},{"id":1002,"posX":-5,"posY":3,"posZ":-1},{"id":1002,"posX":-5,"posY":3,"posZ":0},{"id":1002,"posX":-5,"posY":3,"posZ":1},{"id":1002,"posX":-5,"posY":3,"posZ":2},{"id":1002,"posX":-5,"posY":3,"posZ":3},{"id":1002,"posX":-5,"posY":3,"posZ":4},{"id":1003,"posX":-5,"posY":3,"posZ":5},{"id":1012,"posX":-4,"posY":3,"posZ":-4},{"id":1002,"posX":-4,"posY":3,"posZ":5},{"id":1002,"posX":-3,"posY":3,"posZ":5},{"id":1012,"posX":-2,"posY":3,"posZ":-4},{"id":1002,"posX":-2,"posY":3,"posZ":5},{"id":1003,"posX":-1,"posY":3,"posZ":-4},{"id":1002,"posX":-1,"posY":3,"posZ":5},{"id":1002,"posX":0,"posY":3,"posZ":5},{"id":1002,"posX":1,"posY":3,"posZ":5},{"id":1002,"posX":2,"posY":3,"posZ":5},{"id":1003,"posX":3,"posY":3,"posZ":-4},{"id":1002,"posX":3,"posY":3,"posZ":-3},{"id":1002,"posX":3,"posY":3,"posZ":-2},{"id":1002,"posX":3,"posY":3,"posZ":-1},{"id":1002,"posX":3,"posY":3,"posZ":0},{"id":1002,"posX":3,"posY":3,"posZ":1},{"id":1002,"posX":3,"posY":3,"posZ":2},{"id":1002,"posX":3,"posY":3,"posZ":3},{"id":1002,"posX":3,"posY":3,"posZ":4},{"id":1003,"posX":3,"posY":3,"posZ":5},{"id":1003,"posX":-5,"posY":4,"posZ":-4},{"id":1002,"posX":-5,"posY":4,"posZ":-3},{"id":1002,"posX":-5,"posY":4,"posZ":-2},{"id":1002,"posX":-5,"posY":4,"posZ":-1},{"id":1002,"posX":-5,"posY":4,"posZ":0},{"id":1002,"posX":-5,"posY":4,"posZ":1},{"id":1002,"posX":-5,"posY":4,"posZ":2},{"id":1002,"posX":-5,"posY":4,"posZ":3},{"id":1002,"posX":-5,"posY":4,"posZ":4},{"id":1003,"posX":-5,"posY":4,"posZ":5},{"id":1002,"posX":-4,"posY":4,"posZ":5},{"id":1002,"posX":-3,"posY":4,"posZ":5},{"id":1002,"posX":-2,"posY":4,"posZ":5},{"id":1003,"posX":-1,"posY":4,"posZ":-4},{"id":1002,"posX":-1,"posY":4,"posZ":5},{"id":1002,"posX":0,"posY":4,"posZ":5},{"id":1002,"posX":1,"posY":4,"posZ":5},{"id":1002,"posX":2,"posY":4,"posZ":5},{"id":1003,"posX":3,"posY":4,"posZ":-4},{"id":1002,"posX":3,"posY":4,"posZ":-3},{"id":1002,"posX":3,"posY":4,"posZ":-2},{"id":1002,"posX":3,"posY":4,"posZ":-1},{"id":1002,"posX":3,"posY":4,"posZ":0},{"id":1002,"posX":3,"posY":4,"posZ":1},{"id":1002,"posX":3,"posY":4,"posZ":2},{"id":1002,"posX":3,"posY":4,"posZ":3},{"id":1002,"posX":3,"posY":4,"posZ":4},{"id":1003,"posX":3,"posY":4,"posZ":5},{"id":1004,"posX":-6,"posY":5,"posZ":-5},{"id":1004,"posX":-6,"posY":5,"posZ":-4},{"id":1004,"posX":-6,"posY":5,"posZ":-3},{"id":1004,"posX":-6,"posY":5,"posZ":-2},{"id":1004,"posX":-6,"posY":5,"posZ":-1},{"id":1004,"posX":-6,"posY":5,"posZ":0},{"id":1004,"posX":-6,"posY":5,"posZ":1},{"id":1004,"posX":-6,"posY":5,"posZ":2},{"id":1004,"posX":-6,"posY":5,"posZ":3},{"id":1004,"posX":-6,"posY":5,"posZ":4},{"id":1004,"posX":-6,"posY":5,"posZ":5},{"id":1004,"posX":-6,"posY":5,"posZ":6},{"id":1003,"posX":-5,"posY":5,"posZ":-4},{"id":1003,"posX":-5,"posY":5,"posZ":-3},{"id":1003,"posX":-5,"posY":5,"posZ":-2},{"id":1003,"posX":-5,"posY":5,"posZ":-1},{"id":1003,"posX":-5,"posY":5,"posZ":0},{"id":1003,"posX":-5,"posY":5,"posZ":1},{"id":1003,"posX":-5,"posY":5,"posZ":2},{"id":1003,"posX":-5,"posY":5,"posZ":3},{"id":1003,"posX":-5,"posY":5,"posZ":4},{"id":1003,"posX":-5,"posY":5,"posZ":5},{"id":1003,"posX":-4,"posY":5,"posZ":-4},{"id":1003,"posX":-4,"posY":5,"posZ":5},{"id":1003,"posX":-3,"posY":5,"posZ":-4},{"id":1003,"posX":-3,"posY":5,"posZ":5},{"id":1003,"posX":-2,"posY":5,"posZ":-4},{"id":1003,"posX":-2,"posY":5,"posZ":5},{"id":1003,"posX":-1,"posY":5,"posZ":-4},{"id":1003,"posX":-1,"posY":5,"posZ":5},{"id":1003,"posX":0,"posY":5,"posZ":-4},{"id":1003,"posX":0,"posY":5,"posZ":5},{"id":1003,"posX":1,"posY":5,"posZ":-4},{"id":1003,"posX":1,"posY":5,"posZ":5},{"id":1003,"posX":2,"posY":5,"posZ":-4},{"id":1003,"posX":2,"posY":5,"posZ":5},{"id":1003,"posX":3,"posY":5,"posZ":-4},{"id":1003,"posX":3,"posY":5,"posZ":-3},{"id":1003,"posX":3,"posY":5,"posZ":-2},{"id":1003,"posX":3,"posY":5,"posZ":-1},{"id":1003,"posX":3,"posY":5,"posZ":0},{"id":1003,"posX":3,"posY":5,"posZ":1},{"id":1003,"posX":3,"posY":5,"posZ":2},{"id":1003,"posX":3,"posY":5,"posZ":3},{"id":1003,"posX":3,"posY":5,"posZ":4},{"id":1003,"posX":3,"posY":5,"posZ":5},{"id":1004,"posX":4,"posY":5,"posZ":-5},{"id":1004,"posX":4,"posY":5,"posZ":-4},{"id":1004,"posX":4,"posY":5,"posZ":-3},{"id":1004,"posX":4,"posY":5,"posZ":-2},{"id":1004,"posX":4,"posY":5,"posZ":-1},{"id":1004,"posX":4,"posY":5,"posZ":0},{"id":1004,"posX":4,"posY":5,"posZ":1},{"id":1004,"posX":4,"posY":5,"posZ":2},{"id":1004,"posX":4,"posY":5,"posZ":3},{"id":1004,"posX":4,"posY":5,"posZ":4},{"id":1004,"posX":4,"posY":5,"posZ":5},{"id":1004,"posX":4,"posY":5,"posZ":6},{"id":1004,"posX":-5,"posY":6,"posZ":-5},{"id":1004,"posX":-5,"posY":6,"posZ":-4},{"id":1004,"posX":-5,"posY":6,"posZ":-3},{"id":1004,"posX":-5,"posY":6,"posZ":-2},{"id":1004,"posX":-5,"posY":6,"posZ":-1},{"id":1004,"posX":-5,"posY":6,"posZ":0},{"id":1004,"posX":-5,"posY":6,"posZ":1},{"id":1004,"posX":-5,"posY":6,"posZ":2},{"id":1004,"posX":-5,"posY":6,"posZ":3},{"id":1004,"posX":-5,"posY":6,"posZ":4},{"id":1004,"posX":-5,"posY":6,"posZ":5},{"id":1004,"posX":-5,"posY":6,"posZ":6},{"id":1004,"posX":-4,"posY":6,"posZ":-4},{"id":1012,"posX":-4,"posY":6,"posZ":5},{"id":1003,"posX":-3,"posY":6,"posZ":-4},{"id":1012,"posX":-3,"posY":6,"posZ":5},{"id":1012,"posX":-2,"posY":6,"posZ":-4},{"id":1012,"posX":-2,"posY":6,"posZ":5},{"id":1012,"posX":-1,"posY":6,"posZ":-4},{"id":1012,"posX":-1,"posY":6,"posZ":5},{"id":1012,"posX":0,"posY":6,"posZ":-4},{"id":1012,"posX":0,"posY":6,"posZ":5},{"id":1003,"posX":1,"posY":6,"posZ":-4},{"id":1012,"posX":1,"posY":6,"posZ":5},{"id":1004,"posX":2,"posY":6,"posZ":-4},{"id":1012,"posX":2,"posY":6,"posZ":5},{"id":1004,"posX":3,"posY":6,"posZ":-5},{"id":1004,"posX":3,"posY":6,"posZ":-4},{"id":1004,"posX":3,"posY":6,"posZ":-3},{"id":1004,"posX":3,"posY":6,"posZ":-2},{"id":1004,"posX":3,"posY":6,"posZ":-1},{"id":1004,"posX":3,"posY":6,"posZ":0},{"id":1004,"posX":3,"posY":6,"posZ":1},{"id":1004,"posX":3,"posY":6,"posZ":2},{"id":1004,"posX":3,"posY":6,"posZ":3},{"id":1004,"posX":3,"posY":6,"posZ":4},{"id":1004,"posX":3,"posY":6,"posZ":5},{"id":1004,"posX":3,"posY":6,"posZ":6},{"id":1004,"posX":-4,"posY":7,"posZ":-5},{"id":1004,"posX":-4,"posY":7,"posZ":-4},{"id":1004,"posX":-4,"posY":7,"posZ":-3},{"id":1004,"posX":-4,"posY":7,"posZ":-2},{"id":1004,"posX":-4,"posY":7,"posZ":-1},{"id":1004,"posX":-4,"posY":7,"posZ":0},{"id":1004,"posX":-4,"posY":7,"posZ":1},{"id":1004,"posX":-4,"posY":7,"posZ":2},{"id":1004,"posX":-4,"posY":7,"posZ":3},{"id":1004,"posX":-4,"posY":7,"posZ":4},{"id":1004,"posX":-4,"posY":7,"posZ":5},{"id":1004,"posX":-4,"posY":7,"posZ":6},{"id":1003,"posX":-3,"posY":7,"posZ":-4},{"id":1012,"posX":-3,"posY":7,"posZ":5},{"id":1003,"posX":-2,"posY":7,"posZ":-4},{"id":1012,"posX":-2,"posY":7,"posZ":5},{"id":1003,"posX":-1,"posY":7,"posZ":-4},{"id":1012,"posX":-1,"posY":7,"posZ":5},{"id":1003,"posX":0,"posY":7,"posZ":-4},{"id":1012,"posX":0,"posY":7,"posZ":5},{"id":1003,"posX":1,"posY":7,"posZ":-4},{"id":1012,"posX":1,"posY":7,"posZ":5},{"id":1004,"posX":2,"posY":7,"posZ":-5},{"id":1004,"posX":2,"posY":7,"posZ":-4},{"id":1004,"posX":2,"posY":7,"posZ":-3},{"id":1004,"posX":2,"posY":7,"posZ":-2},{"id":1004,"posX":2,"posY":7,"posZ":-1},{"id":1004,"posX":2,"posY":7,"posZ":0},{"id":1004,"posX":2,"posY":7,"posZ":1},{"id":1004,"posX":2,"posY":7,"posZ":2},{"id":1004,"posX":2,"posY":7,"posZ":3},{"id":1004,"posX":2,"posY":7,"posZ":4},{"id":1004,"posX":2,"posY":7,"posZ":5},{"id":1004,"posX":2,"posY":7,"posZ":6},{"id":1004,"posX":-3,"posY":8,"posZ":-5},{"id":1004,"posX":-3,"posY":8,"posZ":-4},{"id":1004,"posX":-3,"posY":8,"posZ":-3},{"id":1004,"posX":-3,"posY":8,"posZ":-2},{"id":1004,"posX":-3,"posY":8,"posZ":-1},{"id":1004,"posX":-3,"posY":8,"posZ":0},{"id":1004,"posX":-3,"posY":8,"posZ":1},{"id":1004,"posX":-3,"posY":8,"posZ":2},{"id":1004,"posX":-3,"posY":8,"posZ":3},{"id":1004,"posX":-3,"posY":8,"posZ":4},{"id":1004,"posX":-3,"posY":8,"posZ":5},{"id":1004,"posX":-3,"posY":8,"posZ":6},{"id":1004,"posX":-2,"posY":8,"posZ":-4},{"id":1012,"posX":-2,"posY":8,"posZ":5},{"id":1012,"posX":-1,"posY":8,"posZ":5},{"id":1012,"posX":0,"posY":8,"posZ":5},{"id":1004,"posX":1,"posY":8,"posZ":-5},{"id":1004,"posX":1,"posY":8,"posZ":-4},{"id":1004,"posX":1,"posY":8,"posZ":-3},{"id":1004,"posX":1,"posY":8,"posZ":-2},{"id":1004,"posX":1,"posY":8,"posZ":-1},{"id":1004,"posX":1,"posY":8,"posZ":0},{"id":1004,"posX":1,"posY":8,"posZ":1},{"id":1004,"posX":1,"posY":8,"posZ":2},{"id":1004,"posX":1,"posY":8,"posZ":3},{"id":1004,"posX":1,"posY":8,"posZ":4},{"id":1004,"posX":1,"posY":8,"posZ":5},{"id":1004,"posX":1,"posY":8,"posZ":6},{"id":1004,"posX":-2,"posY":9,"posZ":-5},{"id":1004,"posX":-2,"posY":9,"posZ":-4},{"id":1004,"posX":-2,"posY":9,"posZ":-3},{"id":1004,"posX":-2,"posY":9,"posZ":-2},{"id":1004,"posX":-2,"posY":9,"posZ":-1},{"id":1004,"posX":-2,"posY":9,"posZ":0},{"id":1004,"posX":-2,"posY":9,"posZ":1},{"id":1004,"posX":-2,"posY":9,"posZ":2},{"id":1004,"posX":-2,"posY":9,"posZ":3},{"id":1004,"posX":-2,"posY":9,"posZ":4},{"id":1004,"posX":-2,"posY":9,"posZ":5},{"id":1004,"posX":-2,"posY":9,"posZ":6},{"id":1004,"posX":-1,"posY":9,"posZ":-5},{"id":1004,"posX":-1,"posY":9,"posZ":-4},{"id":1004,"posX":-1,"posY":9,"posZ":-3},{"id":1004,"posX":-1,"posY":9,"posZ":-2},{"id":1004,"posX":-1,"posY":9,"posZ":-1},{"id":1004,"posX":-1,"posY":9,"posZ":0},{"id":1004,"posX":-1,"posY":9,"posZ":1},{"id":1004,"posX":-1,"posY":9,"posZ":2},{"id":1004,"posX":-1,"posY":9,"posZ":3},{"id":1004,"posX":-1,"posY":9,"posZ":4},{"id":1004,"posX":-1,"posY":9,"posZ":5},{"id":1004,"posX":-1,"posY":9,"posZ":6},{"id":1004,"posX":0,"posY":9,"posZ":-5},{"id":1004,"posX":0,"posY":9,"posZ":-4},{"id":1004,"posX":0,"posY":9,"posZ":-3},{"id":1004,"posX":0,"posY":9,"posZ":-2},{"id":1004,"posX":0,"posY":9,"posZ":-1},{"id":1004,"posX":0,"posY":9,"posZ":0},{"id":1004,"posX":0,"posY":9,"posZ":1},{"id":1004,"posX":0,"posY":9,"posZ":2},{"id":1004,"posX":0,"posY":9,"posZ":3},{"id":1004,"posX":0,"posY":9,"posZ":4},{"id":1004,"posX":0,"posY":9,"posZ":5},{"id":1004,"posX":0,"posY":9,"posZ":6}]}</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>唯一のID</t>
@@ -80,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,21 +93,62 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -119,11 +157,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,7 +498,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -498,34 +542,34 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE2197-C7C7-4697-AE22-BAB215983BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE44F40-2DF0-49EB-A689-E4F2F133955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -70,6 +70,10 @@
     <rPh sb="4" eb="6">
       <t>ナイヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -188,11 +192,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
+    <tableColumn id="3" xr3:uid="{D6D05EBE-E31B-415C-82CE-D098F00F09D7}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,23 +500,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -519,7 +527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -541,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E370A5-172A-4DC3-BDE9-6B607C61DD98}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE44F40-2DF0-49EB-A689-E4F2F133955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B55F6-0306-44A9-A5E8-516C04D9D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="2745" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{"sizeX":3,"sizeZ":1,"blocks":[{"id":1005,"posX":0,"posY":0,"posZ":0},{"id":1005,"posX":0,"posY":1,"posZ":0}]}</t>
-  </si>
-  <si>
-    <t>{"sizeX":14,"sizeZ":15,"blocks":[{"id":1007,"posX":-5,"posY":0,"posZ":-4},{"id":1002,"posX":-5,"posY":0,"posZ":-3},{"id":1002,"posX":-5,"posY":0,"posZ":-2},{"id":1002,"posX":-5,"posY":0,"posZ":-1},{"id":1002,"posX":-5,"posY":0,"posZ":0},{"id":1002,"posX":-5,"posY":0,"posZ":1},{"id":1002,"posX":-5,"posY":0,"posZ":2},{"id":1002,"posX":-5,"posY":0,"posZ":3},{"id":1002,"posX":-5,"posY":0,"posZ":4},{"id":1002,"posX":-5,"posY":0,"posZ":5},{"id":1004,"posX":-4,"posY":0,"posZ":-5},{"id":1007,"posX":-4,"posY":0,"posZ":-4},{"id":1002,"posX":-4,"posY":0,"posZ":-3},{"id":1002,"posX":-4,"posY":0,"posZ":-2},{"id":1002,"posX":-4,"posY":0,"posZ":-1},{"id":1002,"posX":-4,"posY":0,"posZ":0},{"id":1002,"posX":-4,"posY":0,"posZ":1},{"id":1002,"posX":-4,"posY":0,"posZ":2},{"id":1002,"posX":-4,"posY":0,"posZ":3},{"id":1002,"posX":-4,"posY":0,"posZ":4},{"id":1002,"posX":-4,"posY":0,"posZ":5},{"id":1004,"posX":-3,"posY":0,"posZ":-5},{"id":1007,"posX":-3,"posY":0,"posZ":-4},{"id":1002,"posX":-3,"posY":0,"posZ":-3},{"id":1002,"posX":-3,"posY":0,"posZ":-2},{"id":1002,"posX":-3,"posY":0,"posZ":-1},{"id":1002,"posX":-3,"posY":0,"posZ":0},{"id":1002,"posX":-3,"posY":0,"posZ":1},{"id":1002,"posX":-3,"posY":0,"posZ":2},{"id":1002,"posX":-3,"posY":0,"posZ":3},{"id":1002,"posX":-3,"posY":0,"posZ":4},{"id":1002,"posX":-3,"posY":0,"posZ":5},{"id":1004,"posX":-2,"posY":0,"posZ":-5},{"id":1007,"posX":-2,"posY":0,"posZ":-4},{"id":1002,"posX":-2,"posY":0,"posZ":-3},{"id":1002,"posX":-2,"posY":0,"posZ":-2},{"id":1002,"posX":-2,"posY":0,"posZ":-1},{"id":1002,"posX":-2,"posY":0,"posZ":0},{"id":1002,"posX":-2,"posY":0,"posZ":1},{"id":1002,"posX":-2,"posY":0,"posZ":2},{"id":1002,"posX":-2,"posY":0,"posZ":3},{"id":1002,"posX":-2,"posY":0,"posZ":4},{"id":1002,"posX":-2,"posY":0,"posZ":5},{"id":1012,"posX":-1,"posY":0,"posZ":-6},{"id":1012,"posX":-1,"posY":0,"posZ":-5},{"id":1007,"posX":-1,"posY":0,"posZ":-4},{"id":1002,"posX":-1,"posY":0,"posZ":-3},{"id":1002,"posX":-1,"posY":0,"posZ":-2},{"id":1002,"posX":-1,"posY":0,"posZ":-1},{"id":1002,"posX":-1,"posY":0,"posZ":0},{"id":1002,"posX":-1,"posY":0,"posZ":1},{"id":1002,"posX":-1,"posY":0,"posZ":2},{"id":1002,"posX":-1,"posY":0,"posZ":3},{"id":1002,"posX":-1,"posY":0,"posZ":4},{"id":1002,"posX":-1,"posY":0,"posZ":5},{"id":1012,"posX":0,"posY":0,"posZ":-6},{"id":1012,"posX":0,"posY":0,"posZ":-5},{"id":1007,"posX":0,"posY":0,"posZ":-4},{"id":1002,"posX":0,"posY":0,"posZ":-3},{"id":1002,"posX":0,"posY":0,"posZ":-2},{"id":1002,"posX":0,"posY":0,"posZ":-1},{"id":1002,"posX":0,"posY":0,"posZ":0},{"id":1002,"posX":0,"posY":0,"posZ":1},{"id":1002,"posX":0,"posY":0,"posZ":2},{"id":1002,"posX":0,"posY":0,"posZ":3},{"id":1002,"posX":0,"posY":0,"posZ":4},{"id":1002,"posX":0,"posY":0,"posZ":5},{"id":1012,"posX":1,"posY":0,"posZ":-6},{"id":1012,"posX":1,"posY":0,"posZ":-5},{"id":1007,"posX":1,"posY":0,"posZ":-4},{"id":1002,"posX":1,"posY":0,"posZ":-3},{"id":1002,"posX":1,"posY":0,"posZ":-2},{"id":1002,"posX":1,"posY":0,"posZ":-1},{"id":1002,"posX":1,"posY":0,"posZ":0},{"id":1002,"posX":1,"posY":0,"posZ":1},{"id":1002,"posX":1,"posY":0,"posZ":2},{"id":1002,"posX":1,"posY":0,"posZ":3},{"id":1002,"posX":1,"posY":0,"posZ":4},{"id":1002,"posX":1,"posY":0,"posZ":5},{"id":1012,"posX":2,"posY":0,"posZ":-6},{"id":1012,"posX":2,"posY":0,"posZ":-5},{"id":1007,"posX":2,"posY":0,"posZ":-4},{"id":1002,"posX":2,"posY":0,"posZ":-3},{"id":1002,"posX":2,"posY":0,"posZ":-2},{"id":1002,"posX":2,"posY":0,"posZ":-1},{"id":1002,"posX":2,"posY":0,"posZ":0},{"id":1002,"posX":2,"posY":0,"posZ":1},{"id":1002,"posX":2,"posY":0,"posZ":2},{"id":1002,"posX":2,"posY":0,"posZ":3},{"id":1002,"posX":2,"posY":0,"posZ":4},{"id":1002,"posX":2,"posY":0,"posZ":5},{"id":1012,"posX":3,"posY":0,"posZ":-6},{"id":1012,"posX":3,"posY":0,"posZ":-5},{"id":1007,"posX":3,"posY":0,"posZ":-4},{"id":1002,"posX":3,"posY":0,"posZ":-3},{"id":1002,"posX":3,"posY":0,"posZ":-2},{"id":1002,"posX":3,"posY":0,"posZ":-1},{"id":1002,"posX":3,"posY":0,"posZ":0},{"id":1002,"posX":3,"posY":0,"posZ":1},{"id":1002,"posX":3,"posY":0,"posZ":2},{"id":1002,"posX":3,"posY":0,"posZ":3},{"id":1002,"posX":3,"posY":0,"posZ":4},{"id":1002,"posX":3,"posY":0,"posZ":5},{"id":1012,"posX":4,"posY":0,"posZ":-6},{"id":1012,"posX":4,"posY":0,"posZ":-5},{"id":1012,"posX":4,"posY":0,"posZ":-4},{"id":1012,"posX":4,"posY":0,"posZ":-3},{"id":1012,"posX":4,"posY":0,"posZ":-2},{"id":1012,"posX":4,"posY":0,"posZ":-1},{"id":1012,"posX":4,"posY":0,"posZ":0},{"id":1012,"posX":4,"posY":0,"posZ":1},{"id":1012,"posX":4,"posY":0,"posZ":2},{"id":1012,"posX":4,"posY":0,"posZ":3},{"id":1012,"posX":4,"posY":0,"posZ":4},{"id":1003,"posX":-5,"posY":1,"posZ":-4},{"id":1002,"posX":-5,"posY":1,"posZ":-3},{"id":1002,"posX":-5,"posY":1,"posZ":-2},{"id":1002,"posX":-5,"posY":1,"posZ":-1},{"id":1002,"posX":-5,"posY":1,"posZ":0},{"id":1002,"posX":-5,"posY":1,"posZ":1},{"id":1002,"posX":-5,"posY":1,"posZ":2},{"id":1002,"posX":-5,"posY":1,"posZ":3},{"id":1002,"posX":-5,"posY":1,"posZ":4},{"id":1003,"posX":-5,"posY":1,"posZ":5},{"id":1012,"posX":-4,"posY":1,"posZ":-4},{"id":1002,"posX":-4,"posY":1,"posZ":5},{"id":1002,"posX":-3,"posY":1,"posZ":5},{"id":1012,"posX":-2,"posY":1,"posZ":-4},{"id":1002,"posX":-2,"posY":1,"posZ":5},{"id":1003,"posX":-1,"posY":1,"posZ":-4},{"id":1002,"posX":-1,"posY":1,"posZ":5},{"id":1002,"posX":0,"posY":1,"posZ":5},{"id":1002,"posX":1,"posY":1,"posZ":5},{"id":1002,"posX":2,"posY":1,"posZ":5},{"id":1003,"posX":3,"posY":1,"posZ":-4},{"id":1002,"posX":3,"posY":1,"posZ":-3},{"id":1002,"posX":3,"posY":1,"posZ":-2},{"id":1002,"posX":3,"posY":1,"posZ":-1},{"id":1002,"posX":3,"posY":1,"posZ":0},{"id":1002,"posX":3,"posY":1,"posZ":1},{"id":1002,"posX":3,"posY":1,"posZ":2},{"id":1002,"posX":3,"posY":1,"posZ":3},{"id":1002,"posX":3,"posY":1,"posZ":4},{"id":1003,"posX":3,"posY":1,"posZ":5},{"id":1003,"posX":-5,"posY":2,"posZ":-4},{"id":1003,"posX":-5,"posY":2,"posZ":5},{"id":1012,"posX":-4,"posY":2,"posZ":-4},{"id":1012,"posX":-2,"posY":2,"posZ":-4},{"id":1003,"posX":-1,"posY":2,"posZ":-4},{"id":1007,"posX":0,"posY":2,"posZ":-4},{"id":1007,"posX":1,"posY":2,"posZ":-4},{"id":1007,"posX":2,"posY":2,"posZ":-4},{"id":1003,"posX":3,"posY":2,"posZ":-4},{"id":1003,"posX":3,"posY":2,"posZ":5},{"id":1003,"posX":-5,"posY":3,"posZ":-4},{"id":1002,"posX":-5,"posY":3,"posZ":-3},{"id":1002,"posX":-5,"posY":3,"posZ":-2},{"id":1002,"posX":-5,"posY":3,"posZ":-1},{"id":1002,"posX":-5,"posY":3,"posZ":0},{"id":1002,"posX":-5,"posY":3,"posZ":1},{"id":1002,"posX":-5,"posY":3,"posZ":2},{"id":1002,"posX":-5,"posY":3,"posZ":3},{"id":1002,"posX":-5,"posY":3,"posZ":4},{"id":1003,"posX":-5,"posY":3,"posZ":5},{"id":1012,"posX":-4,"posY":3,"posZ":-4},{"id":1002,"posX":-4,"posY":3,"posZ":5},{"id":1002,"posX":-3,"posY":3,"posZ":5},{"id":1012,"posX":-2,"posY":3,"posZ":-4},{"id":1002,"posX":-2,"posY":3,"posZ":5},{"id":1003,"posX":-1,"posY":3,"posZ":-4},{"id":1002,"posX":-1,"posY":3,"posZ":5},{"id":1002,"posX":0,"posY":3,"posZ":5},{"id":1002,"posX":1,"posY":3,"posZ":5},{"id":1002,"posX":2,"posY":3,"posZ":5},{"id":1003,"posX":3,"posY":3,"posZ":-4},{"id":1002,"posX":3,"posY":3,"posZ":-3},{"id":1002,"posX":3,"posY":3,"posZ":-2},{"id":1002,"posX":3,"posY":3,"posZ":-1},{"id":1002,"posX":3,"posY":3,"posZ":0},{"id":1002,"posX":3,"posY":3,"posZ":1},{"id":1002,"posX":3,"posY":3,"posZ":2},{"id":1002,"posX":3,"posY":3,"posZ":3},{"id":1002,"posX":3,"posY":3,"posZ":4},{"id":1003,"posX":3,"posY":3,"posZ":5},{"id":1003,"posX":-5,"posY":4,"posZ":-4},{"id":1002,"posX":-5,"posY":4,"posZ":-3},{"id":1002,"posX":-5,"posY":4,"posZ":-2},{"id":1002,"posX":-5,"posY":4,"posZ":-1},{"id":1002,"posX":-5,"posY":4,"posZ":0},{"id":1002,"posX":-5,"posY":4,"posZ":1},{"id":1002,"posX":-5,"posY":4,"posZ":2},{"id":1002,"posX":-5,"posY":4,"posZ":3},{"id":1002,"posX":-5,"posY":4,"posZ":4},{"id":1003,"posX":-5,"posY":4,"posZ":5},{"id":1002,"posX":-4,"posY":4,"posZ":5},{"id":1002,"posX":-3,"posY":4,"posZ":5},{"id":1002,"posX":-2,"posY":4,"posZ":5},{"id":1003,"posX":-1,"posY":4,"posZ":-4},{"id":1002,"posX":-1,"posY":4,"posZ":5},{"id":1002,"posX":0,"posY":4,"posZ":5},{"id":1002,"posX":1,"posY":4,"posZ":5},{"id":1002,"posX":2,"posY":4,"posZ":5},{"id":1003,"posX":3,"posY":4,"posZ":-4},{"id":1002,"posX":3,"posY":4,"posZ":-3},{"id":1002,"posX":3,"posY":4,"posZ":-2},{"id":1002,"posX":3,"posY":4,"posZ":-1},{"id":1002,"posX":3,"posY":4,"posZ":0},{"id":1002,"posX":3,"posY":4,"posZ":1},{"id":1002,"posX":3,"posY":4,"posZ":2},{"id":1002,"posX":3,"posY":4,"posZ":3},{"id":1002,"posX":3,"posY":4,"posZ":4},{"id":1003,"posX":3,"posY":4,"posZ":5},{"id":1004,"posX":-6,"posY":5,"posZ":-5},{"id":1004,"posX":-6,"posY":5,"posZ":-4},{"id":1004,"posX":-6,"posY":5,"posZ":-3},{"id":1004,"posX":-6,"posY":5,"posZ":-2},{"id":1004,"posX":-6,"posY":5,"posZ":-1},{"id":1004,"posX":-6,"posY":5,"posZ":0},{"id":1004,"posX":-6,"posY":5,"posZ":1},{"id":1004,"posX":-6,"posY":5,"posZ":2},{"id":1004,"posX":-6,"posY":5,"posZ":3},{"id":1004,"posX":-6,"posY":5,"posZ":4},{"id":1004,"posX":-6,"posY":5,"posZ":5},{"id":1004,"posX":-6,"posY":5,"posZ":6},{"id":1003,"posX":-5,"posY":5,"posZ":-4},{"id":1003,"posX":-5,"posY":5,"posZ":-3},{"id":1003,"posX":-5,"posY":5,"posZ":-2},{"id":1003,"posX":-5,"posY":5,"posZ":-1},{"id":1003,"posX":-5,"posY":5,"posZ":0},{"id":1003,"posX":-5,"posY":5,"posZ":1},{"id":1003,"posX":-5,"posY":5,"posZ":2},{"id":1003,"posX":-5,"posY":5,"posZ":3},{"id":1003,"posX":-5,"posY":5,"posZ":4},{"id":1003,"posX":-5,"posY":5,"posZ":5},{"id":1003,"posX":-4,"posY":5,"posZ":-4},{"id":1003,"posX":-4,"posY":5,"posZ":5},{"id":1003,"posX":-3,"posY":5,"posZ":-4},{"id":1003,"posX":-3,"posY":5,"posZ":5},{"id":1003,"posX":-2,"posY":5,"posZ":-4},{"id":1003,"posX":-2,"posY":5,"posZ":5},{"id":1003,"posX":-1,"posY":5,"posZ":-4},{"id":1003,"posX":-1,"posY":5,"posZ":5},{"id":1003,"posX":0,"posY":5,"posZ":-4},{"id":1003,"posX":0,"posY":5,"posZ":5},{"id":1003,"posX":1,"posY":5,"posZ":-4},{"id":1003,"posX":1,"posY":5,"posZ":5},{"id":1003,"posX":2,"posY":5,"posZ":-4},{"id":1003,"posX":2,"posY":5,"posZ":5},{"id":1003,"posX":3,"posY":5,"posZ":-4},{"id":1003,"posX":3,"posY":5,"posZ":-3},{"id":1003,"posX":3,"posY":5,"posZ":-2},{"id":1003,"posX":3,"posY":5,"posZ":-1},{"id":1003,"posX":3,"posY":5,"posZ":0},{"id":1003,"posX":3,"posY":5,"posZ":1},{"id":1003,"posX":3,"posY":5,"posZ":2},{"id":1003,"posX":3,"posY":5,"posZ":3},{"id":1003,"posX":3,"posY":5,"posZ":4},{"id":1003,"posX":3,"posY":5,"posZ":5},{"id":1004,"posX":4,"posY":5,"posZ":-5},{"id":1004,"posX":4,"posY":5,"posZ":-4},{"id":1004,"posX":4,"posY":5,"posZ":-3},{"id":1004,"posX":4,"posY":5,"posZ":-2},{"id":1004,"posX":4,"posY":5,"posZ":-1},{"id":1004,"posX":4,"posY":5,"posZ":0},{"id":1004,"posX":4,"posY":5,"posZ":1},{"id":1004,"posX":4,"posY":5,"posZ":2},{"id":1004,"posX":4,"posY":5,"posZ":3},{"id":1004,"posX":4,"posY":5,"posZ":4},{"id":1004,"posX":4,"posY":5,"posZ":5},{"id":1004,"posX":4,"posY":5,"posZ":6},{"id":1004,"posX":-5,"posY":6,"posZ":-5},{"id":1004,"posX":-5,"posY":6,"posZ":-4},{"id":1004,"posX":-5,"posY":6,"posZ":-3},{"id":1004,"posX":-5,"posY":6,"posZ":-2},{"id":1004,"posX":-5,"posY":6,"posZ":-1},{"id":1004,"posX":-5,"posY":6,"posZ":0},{"id":1004,"posX":-5,"posY":6,"posZ":1},{"id":1004,"posX":-5,"posY":6,"posZ":2},{"id":1004,"posX":-5,"posY":6,"posZ":3},{"id":1004,"posX":-5,"posY":6,"posZ":4},{"id":1004,"posX":-5,"posY":6,"posZ":5},{"id":1004,"posX":-5,"posY":6,"posZ":6},{"id":1004,"posX":-4,"posY":6,"posZ":-4},{"id":1012,"posX":-4,"posY":6,"posZ":5},{"id":1003,"posX":-3,"posY":6,"posZ":-4},{"id":1012,"posX":-3,"posY":6,"posZ":5},{"id":1012,"posX":-2,"posY":6,"posZ":-4},{"id":1012,"posX":-2,"posY":6,"posZ":5},{"id":1012,"posX":-1,"posY":6,"posZ":-4},{"id":1012,"posX":-1,"posY":6,"posZ":5},{"id":1012,"posX":0,"posY":6,"posZ":-4},{"id":1012,"posX":0,"posY":6,"posZ":5},{"id":1003,"posX":1,"posY":6,"posZ":-4},{"id":1012,"posX":1,"posY":6,"posZ":5},{"id":1004,"posX":2,"posY":6,"posZ":-4},{"id":1012,"posX":2,"posY":6,"posZ":5},{"id":1004,"posX":3,"posY":6,"posZ":-5},{"id":1004,"posX":3,"posY":6,"posZ":-4},{"id":1004,"posX":3,"posY":6,"posZ":-3},{"id":1004,"posX":3,"posY":6,"posZ":-2},{"id":1004,"posX":3,"posY":6,"posZ":-1},{"id":1004,"posX":3,"posY":6,"posZ":0},{"id":1004,"posX":3,"posY":6,"posZ":1},{"id":1004,"posX":3,"posY":6,"posZ":2},{"id":1004,"posX":3,"posY":6,"posZ":3},{"id":1004,"posX":3,"posY":6,"posZ":4},{"id":1004,"posX":3,"posY":6,"posZ":5},{"id":1004,"posX":3,"posY":6,"posZ":6},{"id":1004,"posX":-4,"posY":7,"posZ":-5},{"id":1004,"posX":-4,"posY":7,"posZ":-4},{"id":1004,"posX":-4,"posY":7,"posZ":-3},{"id":1004,"posX":-4,"posY":7,"posZ":-2},{"id":1004,"posX":-4,"posY":7,"posZ":-1},{"id":1004,"posX":-4,"posY":7,"posZ":0},{"id":1004,"posX":-4,"posY":7,"posZ":1},{"id":1004,"posX":-4,"posY":7,"posZ":2},{"id":1004,"posX":-4,"posY":7,"posZ":3},{"id":1004,"posX":-4,"posY":7,"posZ":4},{"id":1004,"posX":-4,"posY":7,"posZ":5},{"id":1004,"posX":-4,"posY":7,"posZ":6},{"id":1003,"posX":-3,"posY":7,"posZ":-4},{"id":1012,"posX":-3,"posY":7,"posZ":5},{"id":1003,"posX":-2,"posY":7,"posZ":-4},{"id":1012,"posX":-2,"posY":7,"posZ":5},{"id":1003,"posX":-1,"posY":7,"posZ":-4},{"id":1012,"posX":-1,"posY":7,"posZ":5},{"id":1003,"posX":0,"posY":7,"posZ":-4},{"id":1012,"posX":0,"posY":7,"posZ":5},{"id":1003,"posX":1,"posY":7,"posZ":-4},{"id":1012,"posX":1,"posY":7,"posZ":5},{"id":1004,"posX":2,"posY":7,"posZ":-5},{"id":1004,"posX":2,"posY":7,"posZ":-4},{"id":1004,"posX":2,"posY":7,"posZ":-3},{"id":1004,"posX":2,"posY":7,"posZ":-2},{"id":1004,"posX":2,"posY":7,"posZ":-1},{"id":1004,"posX":2,"posY":7,"posZ":0},{"id":1004,"posX":2,"posY":7,"posZ":1},{"id":1004,"posX":2,"posY":7,"posZ":2},{"id":1004,"posX":2,"posY":7,"posZ":3},{"id":1004,"posX":2,"posY":7,"posZ":4},{"id":1004,"posX":2,"posY":7,"posZ":5},{"id":1004,"posX":2,"posY":7,"posZ":6},{"id":1004,"posX":-3,"posY":8,"posZ":-5},{"id":1004,"posX":-3,"posY":8,"posZ":-4},{"id":1004,"posX":-3,"posY":8,"posZ":-3},{"id":1004,"posX":-3,"posY":8,"posZ":-2},{"id":1004,"posX":-3,"posY":8,"posZ":-1},{"id":1004,"posX":-3,"posY":8,"posZ":0},{"id":1004,"posX":-3,"posY":8,"posZ":1},{"id":1004,"posX":-3,"posY":8,"posZ":2},{"id":1004,"posX":-3,"posY":8,"posZ":3},{"id":1004,"posX":-3,"posY":8,"posZ":4},{"id":1004,"posX":-3,"posY":8,"posZ":5},{"id":1004,"posX":-3,"posY":8,"posZ":6},{"id":1004,"posX":-2,"posY":8,"posZ":-4},{"id":1012,"posX":-2,"posY":8,"posZ":5},{"id":1012,"posX":-1,"posY":8,"posZ":5},{"id":1012,"posX":0,"posY":8,"posZ":5},{"id":1004,"posX":1,"posY":8,"posZ":-5},{"id":1004,"posX":1,"posY":8,"posZ":-4},{"id":1004,"posX":1,"posY":8,"posZ":-3},{"id":1004,"posX":1,"posY":8,"posZ":-2},{"id":1004,"posX":1,"posY":8,"posZ":-1},{"id":1004,"posX":1,"posY":8,"posZ":0},{"id":1004,"posX":1,"posY":8,"posZ":1},{"id":1004,"posX":1,"posY":8,"posZ":2},{"id":1004,"posX":1,"posY":8,"posZ":3},{"id":1004,"posX":1,"posY":8,"posZ":4},{"id":1004,"posX":1,"posY":8,"posZ":5},{"id":1004,"posX":1,"posY":8,"posZ":6},{"id":1004,"posX":-2,"posY":9,"posZ":-5},{"id":1004,"posX":-2,"posY":9,"posZ":-4},{"id":1004,"posX":-2,"posY":9,"posZ":-3},{"id":1004,"posX":-2,"posY":9,"posZ":-2},{"id":1004,"posX":-2,"posY":9,"posZ":-1},{"id":1004,"posX":-2,"posY":9,"posZ":0},{"id":1004,"posX":-2,"posY":9,"posZ":1},{"id":1004,"posX":-2,"posY":9,"posZ":2},{"id":1004,"posX":-2,"posY":9,"posZ":3},{"id":1004,"posX":-2,"posY":9,"posZ":4},{"id":1004,"posX":-2,"posY":9,"posZ":5},{"id":1004,"posX":-2,"posY":9,"posZ":6},{"id":1004,"posX":-1,"posY":9,"posZ":-5},{"id":1004,"posX":-1,"posY":9,"posZ":-4},{"id":1004,"posX":-1,"posY":9,"posZ":-3},{"id":1004,"posX":-1,"posY":9,"posZ":-2},{"id":1004,"posX":-1,"posY":9,"posZ":-1},{"id":1004,"posX":-1,"posY":9,"posZ":0},{"id":1004,"posX":-1,"posY":9,"posZ":1},{"id":1004,"posX":-1,"posY":9,"posZ":2},{"id":1004,"posX":-1,"posY":9,"posZ":3},{"id":1004,"posX":-1,"posY":9,"posZ":4},{"id":1004,"posX":-1,"posY":9,"posZ":5},{"id":1004,"posX":-1,"posY":9,"posZ":6},{"id":1004,"posX":0,"posY":9,"posZ":-5},{"id":1004,"posX":0,"posY":9,"posZ":-4},{"id":1004,"posX":0,"posY":9,"posZ":-3},{"id":1004,"posX":0,"posY":9,"posZ":-2},{"id":1004,"posX":0,"posY":9,"posZ":-1},{"id":1004,"posX":0,"posY":9,"posZ":0},{"id":1004,"posX":0,"posY":9,"posZ":1},{"id":1004,"posX":0,"posY":9,"posZ":2},{"id":1004,"posX":0,"posY":9,"posZ":3},{"id":1004,"posX":0,"posY":9,"posZ":4},{"id":1004,"posX":0,"posY":9,"posZ":5},{"id":1004,"posX":0,"posY":9,"posZ":6}]}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>唯一のID</t>
     <rPh sb="0" eb="2">
       <t>ユイイツ</t>
@@ -74,6 +67,14 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.TXT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -503,7 +504,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -516,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -524,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -532,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -567,7 +568,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -577,7 +578,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512B55F6-0306-44A9-A5E8-516C04D9D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF101530-BEAB-4A0E-BD2D-EAA437D054EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="2385" yWindow="2100" windowWidth="24525" windowHeight="12975" activeTab="1" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -66,15 +66,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.TXT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2.TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加の記事</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -198,7 +208,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
-    <tableColumn id="3" xr3:uid="{D6D05EBE-E31B-415C-82CE-D098F00F09D7}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{D6D05EBE-E31B-415C-82CE-D098F00F09D7}" name="Des"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -517,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -525,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -533,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -548,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E370A5-172A-4DC3-BDE9-6B607C61DD98}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -581,6 +591,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF101530-BEAB-4A0E-BD2D-EAA437D054EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F756C31-A9B0-4048-8663-E2B0194D1133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2100" windowWidth="24525" windowHeight="12975" activeTab="1" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="41150" yWindow="-9160" windowWidth="16380" windowHeight="13610" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -86,6 +86,39 @@
       <t>キジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Village.txt</t>
+  </si>
+  <si>
+    <t>Altar.txt</t>
+  </si>
+  <si>
+    <t>CenterBack_HighMountain.txt</t>
+  </si>
+  <si>
+    <t>Hill_Big.txt</t>
+  </si>
+  <si>
+    <t>Hill_Small.txt</t>
+  </si>
+  <si>
+    <t>Hill_Wall.txt</t>
+  </si>
+  <si>
+    <t>LeftBack_HighMountain.txt</t>
+  </si>
+  <si>
+    <t>RightBack_HighMountain.txt</t>
+  </si>
+  <si>
+    <t>SandHill.txt</t>
+  </si>
+  <si>
+    <t>SmallMountainWall.txt</t>
+  </si>
+  <si>
+    <t>Tree.txt</t>
   </si>
 </sst>
 </file>
@@ -203,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
@@ -511,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -544,6 +577,94 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E370A5-172A-4DC3-BDE9-6B607C61DD98}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F756C31-A9B0-4048-8663-E2B0194D1133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60059393-E18B-4B5C-AE88-3AC0A528A764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41150" yWindow="-9160" windowWidth="16380" windowHeight="13610" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="-22650" yWindow="1500" windowWidth="18495" windowHeight="10515" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -63,14 +63,6 @@
     <rPh sb="4" eb="6">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.TXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.TXT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -205,11 +197,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -236,8 +225,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C14" totalsRowShown="0">
-  <autoFilter ref="A1:C14" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C12" totalsRowShown="0">
+  <autoFilter ref="A1:C12" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
@@ -544,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,111 +549,95 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -685,41 +658,41 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60059393-E18B-4B5C-AE88-3AC0A528A764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14D7F48-2BB2-433F-8CAA-31CF3F051B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22650" yWindow="1500" windowWidth="18495" windowHeight="10515" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>Tree.txt</t>
+  </si>
+  <si>
+    <t>1.TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.TXT</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -225,8 +233,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C12" totalsRowShown="0">
-  <autoFilter ref="A1:C12" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
@@ -533,15 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,91 +560,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -658,39 +682,39 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14D7F48-2BB2-433F-8CAA-31CF3F051B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8ED947-DC5F-465F-9F88-8B48F41EAECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="1125" yWindow="1200" windowWidth="27675" windowHeight="15000" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -110,14 +110,19 @@
     <t>SmallMountainWall.txt</t>
   </si>
   <si>
+    <t>1.TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Tree.txt</t>
-  </si>
-  <si>
-    <t>1.TXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopSquare.txt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -233,8 +238,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C14" totalsRowShown="0">
-  <autoFilter ref="A1:C14" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
@@ -541,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -565,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -573,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -661,7 +666,15 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8ED947-DC5F-465F-9F88-8B48F41EAECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC020EE-114A-4A4A-AF7A-20C2F9573CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1200" windowWidth="27675" windowHeight="15000" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="6780" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>ShopSquare.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueprintGuide.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Guide.txt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +175,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +232,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -238,8 +255,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
@@ -546,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -675,6 +692,22 @@
       </c>
       <c r="B15" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC020EE-114A-4A4A-AF7A-20C2F9573CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96128B51-AB2F-46B2-95EA-25DC0EE3846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -132,6 +132,51 @@
   <si>
     <t>Guide.txt</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring_Tree_Big.txt</t>
+  </si>
+  <si>
+    <t>Spring_Tree_Small.txt</t>
+  </si>
+  <si>
+    <t>Summer_LongTree_Big.txt</t>
+  </si>
+  <si>
+    <t>Summer_LongTree_Small.txt</t>
+  </si>
+  <si>
+    <t>Autumn_Tree_Big.txt</t>
+  </si>
+  <si>
+    <t>Autumn_Tree_Small.txt</t>
+  </si>
+  <si>
+    <t>Winter_Tree_Big.txt</t>
+  </si>
+  <si>
+    <t>Winter_Tree_Small.txt</t>
+  </si>
+  <si>
+    <t>Desert_Cactus.txt</t>
+  </si>
+  <si>
+    <t>Nugget_Gold.txt</t>
+  </si>
+  <si>
+    <t>Nugget_Silver.txt</t>
+  </si>
+  <si>
+    <t>Nugget_Copper.txt</t>
+  </si>
+  <si>
+    <t>Spring_Home_1.TXT</t>
+  </si>
+  <si>
+    <t>Summer_Home_1.TXT</t>
+  </si>
+  <si>
+    <t>River.txt</t>
   </si>
 </sst>
 </file>
@@ -164,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +220,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -224,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,7 +273,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -255,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
@@ -563,13 +603,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -695,7 +736,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -703,11 +744,131 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Blueprint.xlsx
+++ b/Config/Excel/Blueprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96128B51-AB2F-46B2-95EA-25DC0EE3846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AF965B-C450-46AF-BC20-7BA1078BE9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F03FEA2-1145-4742-B1CC-644E3A1B911D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -177,6 +177,28 @@
   </si>
   <si>
     <t>River.txt</t>
+  </si>
+  <si>
+    <t>Autumn_Home_1.TXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winter_Home_1.TXT</t>
+  </si>
+  <si>
+    <t>Village_Autumn.txt</t>
+  </si>
+  <si>
+    <t>Village_Summer.txt</t>
+  </si>
+  <si>
+    <t>Village_Winter.txt</t>
+  </si>
+  <si>
+    <t>Village_Desert.txt</t>
+  </si>
+  <si>
+    <t>Village_Desert_White.txt</t>
   </si>
 </sst>
 </file>
@@ -295,8 +317,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C32" totalsRowShown="0">
-  <autoFilter ref="A1:C32" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}" name="テーブル1" displayName="テーブル1" ref="A1:C39" totalsRowShown="0">
+  <autoFilter ref="A1:C39" xr:uid="{1D769031-8B38-4248-8F60-0D1DDA93DC72}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{990DCDC7-940C-4E72-8911-313A9CA7936D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{5AA09104-7B0D-49A9-9FB3-7F4E719EE203}" name="Data"/>
@@ -603,9 +625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DDC781-2B61-4D16-AD28-3D04B234000E}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -869,6 +893,62 @@
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
